--- a/public/imports/pagos.xlsx
+++ b/public/imports/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5486CA7-AA09-4159-96D2-41D7710AA790}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE45B07-F8CE-429F-A60C-132C50FA95BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B8875AEE-1F93-456E-A25B-5085BEAD0B47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="324">
   <si>
     <t>FECHA</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>FANNY GRANADOS DELGADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12 </t>
   </si>
   <si>
     <t>31</t>
@@ -1037,7 +1034,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6004F521-D141-49C3-8FB2-2C8C6456D3B6}">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,8 +1363,8 @@
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" customWidth="1"/>
     <col min="7" max="7" width="76.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -1383,10 +1382,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1409,10 +1408,10 @@
       <c r="D2">
         <v>19302336</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>23</v>
       </c>
       <c r="G2" t="s">
@@ -1435,10 +1434,10 @@
       <c r="D3">
         <v>1092155466</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" t="s">
@@ -1461,10 +1460,10 @@
       <c r="D4">
         <v>52421972</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>6</v>
       </c>
       <c r="G4" t="s">
@@ -1487,14 +1486,14 @@
       <c r="D5">
         <v>51754727</v>
       </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1">
         <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>10000000</v>
@@ -1508,19 +1507,19 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>46382157</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>20000000</v>
@@ -1534,19 +1533,19 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>74187847</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7">
         <v>20000000</v>
@@ -1557,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1022376215</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>10000000</v>
@@ -1580,22 +1579,22 @@
         <v>45141</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9">
         <v>1013669470</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
-      </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
       </c>
       <c r="H9">
         <v>5000000</v>
@@ -1606,22 +1605,22 @@
         <v>45141</v>
       </c>
       <c r="B10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1092155466</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>6000000</v>
@@ -1632,22 +1631,22 @@
         <v>45142</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>47429862</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11">
         <v>10000000</v>
@@ -1666,19 +1665,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>39095679</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
         <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>10000000</v>
@@ -1692,19 +1691,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>1118569261</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1">
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14">
         <v>5000000</v>
@@ -1718,19 +1717,19 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1013669470</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>2500000</v>
@@ -1749,19 +1748,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>1118552906</v>
       </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17">
         <v>50000000</v>
@@ -1785,19 +1784,19 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>1118553757</v>
       </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20">
         <v>5000000</v>
@@ -1811,19 +1810,19 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>1049605693</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21">
         <v>10000000</v>
@@ -1837,19 +1836,19 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>19424910</v>
       </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22">
         <v>20000000</v>
@@ -1863,19 +1862,19 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>1010015896</v>
       </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1">
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23">
         <v>5000000</v>
@@ -1889,19 +1888,19 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>1065829393</v>
       </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1">
         <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>20000000</v>
@@ -1920,19 +1919,19 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>1065829393</v>
       </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26">
         <v>3000000</v>
@@ -1946,19 +1945,19 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>1118569261</v>
       </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1">
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27">
         <v>1040000</v>
@@ -1972,19 +1971,19 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>9657267</v>
       </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>1800000</v>
@@ -1998,19 +1997,19 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>1118573758</v>
       </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H29">
         <v>1200000</v>
@@ -2029,19 +2028,19 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>1118534104</v>
       </c>
-      <c r="E31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31">
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1">
         <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31">
         <v>5000000</v>
@@ -2055,19 +2054,19 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>1118534104</v>
       </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32">
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1">
         <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32">
         <v>5000000</v>
@@ -2081,19 +2080,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>37319251</v>
       </c>
-      <c r="E33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33">
+      <c r="E33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="1">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H33">
         <v>10000000</v>
@@ -2107,19 +2106,19 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>1118544757</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34">
         <v>10000000</v>
@@ -2133,19 +2132,19 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>5600266</v>
       </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1">
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35">
         <v>1200000</v>
@@ -2159,19 +2158,19 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>23791752</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36">
         <v>10000000</v>
@@ -2185,19 +2184,19 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>1006554074</v>
       </c>
-      <c r="E37" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37">
+      <c r="E37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="1">
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H37">
         <v>10000000</v>
@@ -2211,19 +2210,19 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38">
         <v>1018483669</v>
       </c>
-      <c r="E38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38">
+      <c r="E38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="1">
         <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H38">
         <v>10000000</v>
@@ -2237,19 +2236,19 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39">
         <v>74184370</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H39">
         <v>3000000</v>
@@ -2257,13 +2256,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2274,19 +2273,19 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>39095679</v>
       </c>
-      <c r="E41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H41">
         <v>500000</v>
@@ -2300,19 +2299,19 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>1049659149</v>
       </c>
-      <c r="E42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1">
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>9800000</v>
@@ -2326,19 +2325,19 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1094370742</v>
       </c>
-      <c r="E43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H43">
         <v>10000000</v>
@@ -2352,19 +2351,19 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>46382157</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="1">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
         <v>80</v>
-      </c>
-      <c r="F44">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>81</v>
       </c>
       <c r="H44">
         <v>1650000</v>
@@ -2378,19 +2377,19 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D45">
         <v>1010242323</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H45">
         <v>10000000</v>
@@ -2404,19 +2403,19 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46">
         <v>1055312774</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>10000000</v>
@@ -2424,24 +2423,24 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48">
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2452,19 +2451,19 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>1018483669</v>
       </c>
-      <c r="E49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="1">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49">
         <v>800000</v>
@@ -2478,19 +2477,19 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50">
         <v>51626618</v>
       </c>
-      <c r="E50" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="1">
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H50">
         <v>10000000</v>
@@ -2504,19 +2503,19 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D51">
         <v>37319251</v>
       </c>
-      <c r="E51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F51">
+      <c r="E51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="1">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>10000000</v>
@@ -2530,19 +2529,19 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52">
         <v>1026561711</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H52">
         <v>5000000</v>
@@ -2556,19 +2555,19 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53">
         <v>1015404857</v>
       </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H53">
         <v>1990000</v>
@@ -2582,19 +2581,19 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54">
         <v>1118556533</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>20</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>6000000</v>
@@ -2602,13 +2601,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55">
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,19 +2618,19 @@
         <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56">
         <v>1118553757</v>
       </c>
-      <c r="E56" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56">
+      <c r="E56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="1">
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56">
         <v>5000000</v>
@@ -2645,19 +2644,19 @@
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D57">
         <v>1118553757</v>
       </c>
-      <c r="E57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57">
+      <c r="E57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57">
         <v>1000000</v>
@@ -2671,19 +2670,19 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>17413867</v>
       </c>
-      <c r="E58" t="s">
-        <v>47</v>
-      </c>
-      <c r="F58">
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="1">
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H58">
         <v>1000000</v>
@@ -2697,19 +2696,19 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59">
         <v>1118569261</v>
       </c>
-      <c r="E59" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1">
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59">
         <v>1040000</v>
@@ -2723,19 +2722,19 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>9657267</v>
       </c>
-      <c r="E60" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60">
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60">
         <v>1800000</v>
@@ -2749,19 +2748,19 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>1118573758</v>
       </c>
-      <c r="E61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61">
         <v>1200000</v>
@@ -2772,7 +2771,7 @@
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2783,7 +2782,7 @@
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2794,7 +2793,7 @@
         <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2805,7 +2804,7 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2816,7 +2815,7 @@
         <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2827,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2838,7 +2837,7 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2849,7 +2848,7 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2860,7 +2859,7 @@
         <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2871,7 +2870,7 @@
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2882,7 +2881,7 @@
         <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2893,7 +2892,7 @@
         <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2904,7 +2903,7 @@
         <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2915,7 +2914,7 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2926,7 +2925,7 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2937,7 +2936,7 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2948,7 +2947,7 @@
         <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2959,7 +2958,7 @@
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2970,7 +2969,7 @@
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2981,7 +2980,7 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2992,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3003,7 +3002,7 @@
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3014,7 +3013,7 @@
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3025,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3036,7 +3035,7 @@
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3047,7 +3046,7 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3058,7 +3057,7 @@
         <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3069,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3080,7 +3079,7 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3091,7 +3090,7 @@
         <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3102,7 +3101,7 @@
         <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3113,7 +3112,7 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3124,7 +3123,7 @@
         <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3135,7 +3134,7 @@
         <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3146,7 +3145,7 @@
         <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3157,7 +3156,7 @@
         <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3168,7 +3167,7 @@
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3179,7 +3178,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3190,7 +3189,7 @@
         <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3201,7 +3200,7 @@
         <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3212,7 +3211,7 @@
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3223,7 +3222,7 @@
         <v>92</v>
       </c>
       <c r="C103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3234,7 +3233,7 @@
         <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3245,7 +3244,7 @@
         <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3256,7 +3255,7 @@
         <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3267,7 +3266,7 @@
         <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3278,7 +3277,7 @@
         <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3289,7 +3288,7 @@
         <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3300,7 +3299,7 @@
         <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3311,7 +3310,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3325,19 +3324,19 @@
         <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D112">
         <v>9395471</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H112">
         <v>5000000</v>
@@ -3356,19 +3355,19 @@
         <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D114">
         <v>19429910</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H114">
         <v>3074133.67</v>
@@ -3382,19 +3381,19 @@
         <v>104</v>
       </c>
       <c r="C115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D115">
         <v>1049605693</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H115">
         <v>1474550</v>
@@ -3402,10 +3401,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,19 +3415,19 @@
         <v>106</v>
       </c>
       <c r="C117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D117">
         <v>1031133312</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H117">
         <v>1000000</v>
@@ -3447,15 +3446,15 @@
         <v>108</v>
       </c>
       <c r="C119" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D119">
         <v>74184370</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>10</v>
       </c>
       <c r="G119" t="s">
@@ -3478,19 +3477,19 @@
         <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D121">
         <v>74183154</v>
       </c>
-      <c r="E121" t="s">
-        <v>69</v>
-      </c>
-      <c r="F121">
+      <c r="E121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" s="1">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H121">
         <v>40000000</v>
@@ -3504,19 +3503,19 @@
         <v>111</v>
       </c>
       <c r="C122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D122">
         <v>1010242323</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H122">
         <v>2000000</v>
@@ -3530,19 +3529,19 @@
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D123">
         <v>1118334104</v>
       </c>
-      <c r="E123" t="s">
-        <v>47</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F123" s="1">
         <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H123">
         <v>10000000</v>
@@ -3550,13 +3549,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B124">
         <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3567,19 +3566,19 @@
         <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D125">
         <v>1098748654</v>
       </c>
-      <c r="E125" t="s">
-        <v>47</v>
-      </c>
-      <c r="F125">
+      <c r="E125" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F125" s="1">
         <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H125">
         <v>8000000</v>
@@ -3593,19 +3592,19 @@
         <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D126">
         <v>63322747</v>
       </c>
-      <c r="E126" t="s">
-        <v>108</v>
-      </c>
-      <c r="F126">
+      <c r="E126" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="1">
         <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H126">
         <v>7000000</v>
@@ -3613,13 +3612,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B127">
         <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3630,19 +3629,19 @@
         <v>117</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D128">
         <v>1013669470</v>
       </c>
-      <c r="E128" t="s">
-        <v>34</v>
-      </c>
-      <c r="F128">
+      <c r="E128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" s="1">
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H128">
         <v>2500000</v>
@@ -3656,19 +3655,19 @@
         <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D129">
         <v>1118556533</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H129">
         <v>2000000</v>
@@ -3682,19 +3681,19 @@
         <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D130">
         <v>1006554074</v>
       </c>
-      <c r="E130" t="s">
-        <v>69</v>
-      </c>
-      <c r="F130">
+      <c r="E130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F130" s="1">
         <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H130">
         <v>1000000</v>
@@ -3708,19 +3707,19 @@
         <v>120</v>
       </c>
       <c r="C131" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D131">
         <v>1018483669</v>
       </c>
-      <c r="E131" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131">
+      <c r="E131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F131" s="1">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H131">
         <v>800000</v>
@@ -3734,19 +3733,19 @@
         <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D132">
         <v>1098748654</v>
       </c>
-      <c r="E132" t="s">
-        <v>47</v>
-      </c>
-      <c r="F132">
+      <c r="E132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F132" s="1">
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H132">
         <v>8000000</v>
@@ -3760,19 +3759,19 @@
         <v>122</v>
       </c>
       <c r="C133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D133">
         <v>33480684</v>
       </c>
-      <c r="E133" t="s">
-        <v>64</v>
-      </c>
-      <c r="F133">
+      <c r="E133" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F133" s="1">
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H133">
         <v>4000000</v>
@@ -3786,19 +3785,19 @@
         <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D134">
         <v>1118544757</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H134">
         <v>1000000</v>
@@ -3817,19 +3816,19 @@
         <v>125</v>
       </c>
       <c r="C136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D136">
         <v>39095679</v>
       </c>
-      <c r="E136" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136">
+      <c r="E136" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="1">
         <v>5</v>
       </c>
       <c r="G136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H136">
         <v>500000</v>
@@ -3848,19 +3847,19 @@
         <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D138">
         <v>74185470</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H138">
         <v>10000000</v>
@@ -3874,19 +3873,19 @@
         <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D139">
         <v>39095679</v>
       </c>
-      <c r="E139" t="s">
-        <v>34</v>
-      </c>
-      <c r="F139">
+      <c r="E139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" s="1">
         <v>5</v>
       </c>
       <c r="G139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H139">
         <v>1000000</v>
@@ -3905,19 +3904,19 @@
         <v>130</v>
       </c>
       <c r="C141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D141">
         <v>33480684</v>
       </c>
-      <c r="E141" t="s">
-        <v>64</v>
-      </c>
-      <c r="F141">
+      <c r="E141" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F141" s="1">
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H141">
         <v>3000000</v>
@@ -3931,19 +3930,19 @@
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D142">
         <v>33480684</v>
       </c>
-      <c r="E142" t="s">
-        <v>64</v>
-      </c>
-      <c r="F142">
+      <c r="E142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="1">
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H142">
         <v>2000000</v>
@@ -3957,19 +3956,19 @@
         <v>132</v>
       </c>
       <c r="C143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D143">
         <v>51625618</v>
       </c>
-      <c r="E143" t="s">
-        <v>64</v>
-      </c>
-      <c r="F143">
+      <c r="E143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F143" s="1">
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H143">
         <v>400000</v>
@@ -3983,19 +3982,19 @@
         <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D144">
         <v>33481785</v>
       </c>
-      <c r="E144" t="s">
-        <v>64</v>
-      </c>
-      <c r="F144">
+      <c r="E144" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="1">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H144">
         <v>9500000</v>
@@ -4009,19 +4008,19 @@
         <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D145">
         <v>3138438250</v>
       </c>
-      <c r="E145" t="s">
-        <v>29</v>
-      </c>
-      <c r="F145">
+      <c r="E145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="1">
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H145">
         <v>10000000</v>
@@ -4035,19 +4034,19 @@
         <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D146">
         <v>1032388847</v>
       </c>
-      <c r="E146" t="s">
-        <v>64</v>
-      </c>
-      <c r="F146">
+      <c r="E146" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="1">
         <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H146">
         <v>5000000</v>
@@ -4061,19 +4060,19 @@
         <v>136</v>
       </c>
       <c r="C147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D147">
         <v>1118574322</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H147">
         <v>10000000</v>
@@ -4092,19 +4091,19 @@
         <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D149">
         <v>1010242323</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H149">
         <v>2000000</v>
@@ -4118,19 +4117,19 @@
         <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D150">
         <v>1032373886</v>
       </c>
-      <c r="E150" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150">
+      <c r="E150" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="1">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H150">
         <v>2000000</v>
@@ -4144,19 +4143,19 @@
         <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D151">
         <v>1118571010</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H151">
         <v>30000000</v>
@@ -4175,19 +4174,19 @@
         <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D153">
         <v>1029640470</v>
       </c>
-      <c r="E153" t="s">
-        <v>47</v>
-      </c>
-      <c r="F153">
+      <c r="E153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F153" s="1">
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H153">
         <v>2869650</v>
@@ -4201,19 +4200,19 @@
         <v>143</v>
       </c>
       <c r="C154" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D154">
         <v>1029640470</v>
       </c>
-      <c r="E154" t="s">
-        <v>47</v>
-      </c>
-      <c r="F154">
+      <c r="E154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F154" s="1">
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H154">
         <v>949250</v>
@@ -4227,19 +4226,19 @@
         <v>144</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D155">
         <v>1118534673</v>
       </c>
-      <c r="E155" t="s">
-        <v>47</v>
-      </c>
-      <c r="F155">
+      <c r="E155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F155" s="1">
         <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H155">
         <v>952150</v>
@@ -4253,19 +4252,19 @@
         <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D156">
         <v>47433152</v>
       </c>
-      <c r="E156" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156">
+      <c r="E156" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F156" s="1">
         <v>5</v>
       </c>
       <c r="G156" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H156">
         <v>5000000</v>
@@ -4279,19 +4278,19 @@
         <v>146</v>
       </c>
       <c r="C157" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D157">
         <v>9657267</v>
       </c>
-      <c r="E157" t="s">
-        <v>34</v>
-      </c>
-      <c r="F157">
+      <c r="E157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F157" s="1">
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H157">
         <v>1800000</v>
@@ -4305,19 +4304,19 @@
         <v>147</v>
       </c>
       <c r="C158" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D158">
         <v>1118573758</v>
       </c>
-      <c r="E158" t="s">
-        <v>34</v>
-      </c>
-      <c r="F158">
+      <c r="E158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F158" s="1">
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H158">
         <v>1200000</v>
@@ -4331,19 +4330,19 @@
         <v>148</v>
       </c>
       <c r="C159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D159">
         <v>1052384746</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H159">
         <v>2000000</v>
@@ -4357,19 +4356,19 @@
         <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D160">
         <v>901299272</v>
       </c>
-      <c r="E160" t="s">
-        <v>47</v>
-      </c>
-      <c r="F160">
+      <c r="E160" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F160" s="1">
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H160">
         <v>1000000</v>
@@ -4383,19 +4382,19 @@
         <v>150</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D161">
         <v>1118569261</v>
       </c>
-      <c r="E161" t="s">
-        <v>34</v>
-      </c>
-      <c r="F161">
+      <c r="E161" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" s="1">
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H161">
         <v>1040000</v>
@@ -4409,19 +4408,19 @@
         <v>151</v>
       </c>
       <c r="C162" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D162">
         <v>1098748654</v>
       </c>
-      <c r="E162" t="s">
-        <v>47</v>
-      </c>
-      <c r="F162">
+      <c r="E162" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F162" s="1">
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H162">
         <v>4000000</v>
@@ -4435,19 +4434,19 @@
         <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D163">
         <v>1118556533</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H163">
         <v>900000</v>
@@ -4461,19 +4460,19 @@
         <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D164">
         <v>91287052</v>
       </c>
-      <c r="E164" t="s">
-        <v>64</v>
-      </c>
-      <c r="F164">
+      <c r="E164" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F164" s="1">
         <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H164">
         <v>20000000</v>
@@ -4487,19 +4486,19 @@
         <v>154</v>
       </c>
       <c r="C165" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D165">
         <v>33481785</v>
       </c>
-      <c r="E165" t="s">
-        <v>64</v>
-      </c>
-      <c r="F165">
+      <c r="E165" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F165" s="1">
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H165">
         <v>960000</v>
@@ -4513,19 +4512,19 @@
         <v>155</v>
       </c>
       <c r="C166" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D166">
         <v>9395471</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
         <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H166">
         <v>1000000</v>
@@ -4539,19 +4538,19 @@
         <v>156</v>
       </c>
       <c r="C167" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D167">
         <v>91297410</v>
       </c>
-      <c r="E167" t="s">
-        <v>34</v>
-      </c>
-      <c r="F167">
+      <c r="E167" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" s="1">
         <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H167">
         <v>5000000</v>
@@ -4565,19 +4564,19 @@
         <v>157</v>
       </c>
       <c r="C168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D168">
         <v>68295865</v>
       </c>
-      <c r="E168" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168">
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" s="1">
         <v>22</v>
       </c>
       <c r="G168" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H168">
         <v>5000000</v>
@@ -4591,19 +4590,19 @@
         <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D169">
         <v>60292754</v>
       </c>
-      <c r="E169" t="s">
-        <v>29</v>
-      </c>
-      <c r="F169">
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169" s="1">
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H169">
         <v>23000000</v>
@@ -4617,19 +4616,19 @@
         <v>159</v>
       </c>
       <c r="C170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D170">
         <v>1118562301</v>
       </c>
-      <c r="E170" t="s">
-        <v>34</v>
-      </c>
-      <c r="F170">
+      <c r="E170" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" s="1">
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H170">
         <v>10000000</v>
@@ -4648,19 +4647,19 @@
         <v>161</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D172">
         <v>1013669470</v>
       </c>
-      <c r="E172" t="s">
-        <v>34</v>
-      </c>
-      <c r="F172">
+      <c r="E172" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F172" s="1">
         <v>17</v>
       </c>
       <c r="G172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H172">
         <v>2080000</v>
@@ -4674,19 +4673,19 @@
         <v>162</v>
       </c>
       <c r="C173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D173">
         <v>80164501</v>
       </c>
-      <c r="E173" t="s">
-        <v>64</v>
-      </c>
-      <c r="F173">
+      <c r="E173" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F173" s="1">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H173">
         <v>5000000</v>
@@ -4700,19 +4699,19 @@
         <v>163</v>
       </c>
       <c r="C174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D174">
         <v>1118562609</v>
       </c>
-      <c r="E174" t="s">
-        <v>34</v>
-      </c>
-      <c r="F174">
+      <c r="E174" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F174" s="1">
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H174">
         <v>5000000</v>
@@ -4726,19 +4725,19 @@
         <v>164</v>
       </c>
       <c r="C175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D175">
         <v>9431762</v>
       </c>
-      <c r="E175" t="s">
-        <v>64</v>
-      </c>
-      <c r="F175">
+      <c r="E175" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F175" s="1">
         <v>15</v>
       </c>
       <c r="G175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H175">
         <v>5000000</v>
@@ -4752,19 +4751,19 @@
         <v>165</v>
       </c>
       <c r="C176" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D176">
         <v>33480684</v>
       </c>
-      <c r="E176" t="s">
-        <v>64</v>
-      </c>
-      <c r="F176">
+      <c r="E176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F176" s="1">
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H176">
         <v>1000000</v>
@@ -4778,19 +4777,19 @@
         <v>166</v>
       </c>
       <c r="C177" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D177">
         <v>37749956</v>
       </c>
-      <c r="E177" t="s">
-        <v>108</v>
-      </c>
-      <c r="F177">
+      <c r="E177" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="1">
         <v>28</v>
       </c>
       <c r="G177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H177">
         <v>10000000</v>
@@ -4804,19 +4803,19 @@
         <v>167</v>
       </c>
       <c r="C178" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D178">
         <v>51615618</v>
       </c>
-      <c r="E178" t="s">
-        <v>64</v>
-      </c>
-      <c r="F178">
+      <c r="E178" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178" s="1">
         <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H178">
         <v>400000</v>
@@ -4830,19 +4829,19 @@
         <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D179">
         <v>63322747</v>
       </c>
-      <c r="E179" t="s">
-        <v>108</v>
-      </c>
-      <c r="F179">
+      <c r="E179" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F179" s="1">
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H179">
         <v>3000000</v>
@@ -4861,19 +4860,19 @@
         <v>170</v>
       </c>
       <c r="C181" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D181">
         <v>1118555645</v>
       </c>
-      <c r="E181" t="s">
-        <v>34</v>
-      </c>
-      <c r="F181">
+      <c r="E181" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F181" s="1">
         <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H181">
         <v>8500000</v>
@@ -4887,19 +4886,19 @@
         <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D182">
         <v>1118555645</v>
       </c>
-      <c r="E182" t="s">
-        <v>34</v>
-      </c>
-      <c r="F182">
+      <c r="E182" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F182" s="1">
         <v>20</v>
       </c>
       <c r="G182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H182">
         <v>1500000</v>
@@ -4913,19 +4912,19 @@
         <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D183">
         <v>52366011</v>
       </c>
-      <c r="E183" t="s">
-        <v>34</v>
-      </c>
-      <c r="F183">
+      <c r="E183" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F183" s="1">
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H183">
         <v>10000000</v>
@@ -4939,19 +4938,19 @@
         <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D184">
         <v>7185599</v>
       </c>
-      <c r="E184" t="s">
-        <v>34</v>
-      </c>
-      <c r="F184">
+      <c r="E184" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" s="1">
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H184">
         <v>10000000</v>
@@ -4965,19 +4964,19 @@
         <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D185">
         <v>46354840</v>
       </c>
-      <c r="E185" t="s">
-        <v>64</v>
-      </c>
-      <c r="F185">
+      <c r="E185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185" s="1">
         <v>23</v>
       </c>
       <c r="G185" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H185">
         <v>10000000</v>
@@ -4991,19 +4990,19 @@
         <v>175</v>
       </c>
       <c r="C186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D186">
         <v>1032369849</v>
       </c>
-      <c r="E186" t="s">
-        <v>64</v>
-      </c>
-      <c r="F186">
+      <c r="E186" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F186" s="1">
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H186">
         <v>10000000</v>
@@ -5017,19 +5016,19 @@
         <v>176</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D187">
         <v>47427174</v>
       </c>
-      <c r="E187" t="s">
-        <v>64</v>
-      </c>
-      <c r="F187">
+      <c r="E187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F187" s="1">
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H187">
         <v>10000000</v>
@@ -5048,19 +5047,19 @@
         <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D189">
         <v>1118562609</v>
       </c>
-      <c r="E189" t="s">
-        <v>34</v>
-      </c>
-      <c r="F189">
+      <c r="E189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" s="1">
         <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H189">
         <v>5000000</v>
@@ -5074,19 +5073,19 @@
         <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D190">
         <v>47442215</v>
       </c>
-      <c r="E190" t="s">
-        <v>64</v>
-      </c>
-      <c r="F190">
+      <c r="E190" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F190" s="1">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H190">
         <v>5000000</v>
@@ -5100,19 +5099,19 @@
         <v>180</v>
       </c>
       <c r="C191" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D191">
         <v>1118544757</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H191">
         <v>1000000</v>
@@ -5126,19 +5125,19 @@
         <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D192">
         <v>1118556533</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H192">
         <v>2000000</v>
@@ -5146,13 +5145,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B193">
         <v>182</v>
       </c>
       <c r="C193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5163,19 +5162,19 @@
         <v>183</v>
       </c>
       <c r="C194" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D194">
         <v>1118556533</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
         <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H194">
         <v>900000</v>
@@ -5189,19 +5188,19 @@
         <v>184</v>
       </c>
       <c r="C195" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D195">
         <v>1118542090</v>
       </c>
-      <c r="E195" t="s">
-        <v>108</v>
-      </c>
-      <c r="F195">
+      <c r="E195" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F195" s="1">
         <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H195">
         <v>20000000</v>
@@ -5215,19 +5214,19 @@
         <v>185</v>
       </c>
       <c r="C196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D196">
         <v>74183154</v>
       </c>
-      <c r="E196" t="s">
-        <v>69</v>
-      </c>
-      <c r="F196">
+      <c r="E196" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" s="1">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H196">
         <v>30000000</v>
@@ -5241,19 +5240,19 @@
         <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D197">
         <v>91297410</v>
       </c>
-      <c r="E197" t="s">
-        <v>34</v>
-      </c>
-      <c r="F197">
+      <c r="E197" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F197" s="1">
         <v>27</v>
       </c>
       <c r="G197" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H197">
         <v>5000000</v>
@@ -5267,19 +5266,19 @@
         <v>187</v>
       </c>
       <c r="C198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198">
         <v>1118574322</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="1">
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H198">
         <v>2000000</v>
@@ -5293,19 +5292,19 @@
         <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D199">
         <v>1118562301</v>
       </c>
-      <c r="E199" t="s">
-        <v>34</v>
-      </c>
-      <c r="F199">
+      <c r="E199" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" s="1">
         <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H199">
         <v>500000</v>
@@ -5319,19 +5318,19 @@
         <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D200">
         <v>1118571010</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H200">
         <v>4225000</v>
@@ -5345,19 +5344,19 @@
         <v>190</v>
       </c>
       <c r="C201" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D201">
         <v>901299272</v>
       </c>
-      <c r="E201" t="s">
-        <v>47</v>
-      </c>
-      <c r="F201">
+      <c r="E201" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F201" s="1">
         <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H201">
         <v>1000000</v>
@@ -5371,19 +5370,19 @@
         <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D202">
         <v>1032373886</v>
       </c>
-      <c r="E202" t="s">
-        <v>64</v>
-      </c>
-      <c r="F202">
+      <c r="E202" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F202" s="1">
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H202">
         <v>2000000</v>
@@ -5397,19 +5396,19 @@
         <v>192</v>
       </c>
       <c r="C203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D203">
         <v>1120588339</v>
       </c>
-      <c r="E203" t="s">
-        <v>29</v>
-      </c>
-      <c r="F203">
+      <c r="E203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F203" s="1">
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H203">
         <v>21000000</v>
@@ -5423,19 +5422,19 @@
         <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D204">
         <v>1018483669</v>
       </c>
-      <c r="E204" t="s">
-        <v>69</v>
-      </c>
-      <c r="F204">
+      <c r="E204" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F204" s="1">
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H204">
         <v>800000</v>
@@ -5449,19 +5448,19 @@
         <v>194</v>
       </c>
       <c r="C205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D205">
         <v>1099605693</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H205">
         <v>1474550</v>
@@ -5475,19 +5474,19 @@
         <v>195</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D206">
         <v>1099605693</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H206">
         <v>1474550</v>
@@ -5501,19 +5500,19 @@
         <v>196</v>
       </c>
       <c r="C207" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D207">
         <v>19424910</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="1">
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H207">
         <v>5898134</v>
@@ -5527,19 +5526,19 @@
         <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D208">
         <v>1031133312</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="1">
         <v>4</v>
       </c>
       <c r="G208" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H208">
         <v>1000000</v>
@@ -5553,19 +5552,19 @@
         <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D209">
         <v>1116545880</v>
       </c>
-      <c r="E209" t="s">
-        <v>108</v>
-      </c>
-      <c r="F209">
+      <c r="E209" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="1">
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H209">
         <v>14000000</v>
@@ -5579,19 +5578,19 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D210">
         <v>53017217</v>
       </c>
-      <c r="E210" t="s">
-        <v>29</v>
-      </c>
-      <c r="F210">
+      <c r="E210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F210" s="1">
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H210">
         <v>7000000</v>
@@ -5605,19 +5604,19 @@
         <v>200</v>
       </c>
       <c r="C211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D211">
         <v>1118573758</v>
       </c>
-      <c r="E211" t="s">
-        <v>34</v>
-      </c>
-      <c r="F211">
+      <c r="E211" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" s="1">
         <v>4</v>
       </c>
       <c r="G211" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H211">
         <v>1200000</v>
@@ -5631,19 +5630,19 @@
         <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D212">
         <v>9657267</v>
       </c>
-      <c r="E212" t="s">
-        <v>34</v>
-      </c>
-      <c r="F212">
+      <c r="E212" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" s="1">
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H212">
         <v>1800000</v>
@@ -5657,19 +5656,19 @@
         <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D213">
         <v>91287052</v>
       </c>
-      <c r="E213" t="s">
-        <v>64</v>
-      </c>
-      <c r="F213">
+      <c r="E213" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F213" s="1">
         <v>27</v>
       </c>
       <c r="G213" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H213">
         <v>565300</v>
@@ -5683,19 +5682,19 @@
         <v>203</v>
       </c>
       <c r="C214" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D214">
         <v>23791752</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
         <v>21</v>
       </c>
       <c r="G214" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H214">
         <v>5000000</v>
@@ -5709,19 +5708,19 @@
         <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D215">
         <v>1118545641</v>
       </c>
-      <c r="E215" t="s">
-        <v>47</v>
-      </c>
-      <c r="F215">
+      <c r="E215" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F215" s="1">
         <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H215">
         <v>5000000</v>
@@ -5729,13 +5728,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B216">
         <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -5746,19 +5745,19 @@
         <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D217">
         <v>1118553792</v>
       </c>
-      <c r="E217" t="s">
-        <v>108</v>
+      <c r="E217" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G217" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H217">
         <v>6000000</v>
@@ -5772,19 +5771,19 @@
         <v>207</v>
       </c>
       <c r="C218" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D218">
         <v>1118545641</v>
       </c>
-      <c r="E218" t="s">
-        <v>47</v>
-      </c>
-      <c r="F218" t="s">
-        <v>206</v>
+      <c r="E218" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G218" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H218">
         <v>2000000</v>
@@ -5798,19 +5797,19 @@
         <v>208</v>
       </c>
       <c r="C219" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D219">
         <v>33481785</v>
       </c>
-      <c r="E219" t="s">
-        <v>64</v>
-      </c>
-      <c r="F219" t="s">
-        <v>141</v>
+      <c r="E219" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G219" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H219">
         <v>500000</v>
@@ -5824,19 +5823,19 @@
         <v>209</v>
       </c>
       <c r="C220" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D220">
         <v>1031133312</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H220">
         <v>1000000</v>
@@ -5850,19 +5849,19 @@
         <v>210</v>
       </c>
       <c r="C221" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D221">
         <v>9431762</v>
       </c>
-      <c r="E221" t="s">
-        <v>64</v>
-      </c>
-      <c r="F221" t="s">
-        <v>166</v>
+      <c r="E221" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="G221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H221">
         <v>5000000</v>
@@ -5876,19 +5875,19 @@
         <v>211</v>
       </c>
       <c r="C222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D222">
         <v>51692580</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F222" s="1">
+        <v>12</v>
+      </c>
+      <c r="G222" t="s">
         <v>214</v>
-      </c>
-      <c r="F222">
-        <v>12</v>
-      </c>
-      <c r="G222" t="s">
-        <v>215</v>
       </c>
       <c r="H222">
         <v>4700000</v>
@@ -5902,19 +5901,19 @@
         <v>212</v>
       </c>
       <c r="C223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D223">
         <v>1118571788</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F223" t="s">
-        <v>30</v>
+      <c r="F223" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H223">
         <v>5000000</v>
@@ -5928,19 +5927,19 @@
         <v>213</v>
       </c>
       <c r="C224" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D224">
         <v>9431762</v>
       </c>
-      <c r="E224" t="s">
-        <v>64</v>
-      </c>
-      <c r="F224" t="s">
-        <v>166</v>
+      <c r="E224" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="G224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H224">
         <v>500000</v>
@@ -5954,19 +5953,19 @@
         <v>214</v>
       </c>
       <c r="C225" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D225">
         <v>1006554074</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F225" t="s">
-        <v>70</v>
-      </c>
       <c r="G225" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H225">
         <v>3000000</v>
@@ -5980,19 +5979,19 @@
         <v>215</v>
       </c>
       <c r="C226" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D226">
         <v>1010242323</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="1">
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H226">
         <v>10000000</v>
@@ -6006,19 +6005,19 @@
         <v>216</v>
       </c>
       <c r="C227" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D227">
         <v>1010242323</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
         <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H227">
         <v>2000000</v>
@@ -6032,19 +6031,19 @@
         <v>217</v>
       </c>
       <c r="C228" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D228">
         <v>1052384746</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
         <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H228">
         <v>2000000</v>
@@ -6058,19 +6057,19 @@
         <v>218</v>
       </c>
       <c r="C229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D229">
         <v>1118539393</v>
       </c>
-      <c r="E229" t="s">
-        <v>69</v>
-      </c>
-      <c r="F229">
+      <c r="E229" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F229" s="1">
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H229">
         <v>5000000</v>
@@ -6084,19 +6083,19 @@
         <v>219</v>
       </c>
       <c r="C230" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D230">
         <v>1052384746</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="1">
         <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H230">
         <v>1000000</v>
@@ -6110,19 +6109,19 @@
         <v>220</v>
       </c>
       <c r="C231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D231">
         <v>1118569261</v>
       </c>
-      <c r="E231" t="s">
-        <v>34</v>
-      </c>
-      <c r="F231" t="s">
-        <v>57</v>
+      <c r="E231" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G231" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H231">
         <v>1040000</v>
@@ -6136,19 +6135,19 @@
         <v>221</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D232">
         <v>1118569261</v>
       </c>
-      <c r="E232" t="s">
-        <v>34</v>
-      </c>
-      <c r="F232" t="s">
-        <v>57</v>
+      <c r="E232" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G232" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H232">
         <v>1040000</v>
@@ -6162,19 +6161,19 @@
         <v>222</v>
       </c>
       <c r="C233" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D233">
         <v>1118534104</v>
       </c>
-      <c r="E233" t="s">
-        <v>47</v>
-      </c>
-      <c r="F233" t="s">
-        <v>103</v>
+      <c r="E233" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G233" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H233">
         <v>900000</v>
@@ -6188,19 +6187,19 @@
         <v>223</v>
       </c>
       <c r="C234" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D234">
         <v>1118534104</v>
       </c>
-      <c r="E234" t="s">
-        <v>47</v>
-      </c>
-      <c r="F234" t="s">
-        <v>103</v>
+      <c r="E234" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G234" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H234">
         <v>900000</v>
@@ -6214,19 +6213,19 @@
         <v>224</v>
       </c>
       <c r="C235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D235">
         <v>1049659149</v>
       </c>
-      <c r="E235" t="s">
-        <v>34</v>
-      </c>
-      <c r="F235">
+      <c r="E235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F235" s="1">
         <v>6</v>
       </c>
       <c r="G235" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H235">
         <v>5000000</v>
@@ -6240,19 +6239,19 @@
         <v>225</v>
       </c>
       <c r="C236" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D236">
         <v>1118534104</v>
       </c>
-      <c r="E236" t="s">
-        <v>47</v>
-      </c>
-      <c r="F236" t="s">
-        <v>103</v>
+      <c r="E236" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G236" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H236">
         <v>900000</v>
@@ -6260,13 +6259,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B237">
         <v>226</v>
       </c>
       <c r="C237" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -6277,19 +6276,19 @@
         <v>227</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D238">
         <v>39095679</v>
       </c>
-      <c r="E238" t="s">
-        <v>34</v>
-      </c>
-      <c r="F238" t="s">
-        <v>38</v>
+      <c r="E238" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H238">
         <v>1000000</v>
@@ -6303,19 +6302,19 @@
         <v>228</v>
       </c>
       <c r="C239" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D239">
         <v>1118538079</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F239" t="s">
-        <v>73</v>
+      <c r="F239" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G239" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H239">
         <v>3000000</v>
@@ -6329,19 +6328,19 @@
         <v>229</v>
       </c>
       <c r="C240" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D240">
         <v>900890631</v>
       </c>
-      <c r="E240" t="s">
-        <v>69</v>
-      </c>
-      <c r="F240">
+      <c r="E240" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F240" s="1">
         <v>15</v>
       </c>
       <c r="G240" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H240">
         <v>10000000</v>
@@ -6355,19 +6354,19 @@
         <v>230</v>
       </c>
       <c r="C241" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D241">
         <v>51626618</v>
       </c>
-      <c r="E241" t="s">
-        <v>64</v>
-      </c>
-      <c r="F241" t="s">
-        <v>125</v>
+      <c r="E241" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G241" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H241">
         <v>400000</v>
@@ -6381,19 +6380,19 @@
         <v>231</v>
       </c>
       <c r="C242" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D242">
         <v>9657267</v>
       </c>
-      <c r="E242" t="s">
-        <v>34</v>
-      </c>
-      <c r="F242" t="s">
-        <v>60</v>
+      <c r="E242" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H242">
         <v>1800000</v>
@@ -6407,19 +6406,19 @@
         <v>232</v>
       </c>
       <c r="C243" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D243">
         <v>1118573758</v>
       </c>
-      <c r="E243" t="s">
-        <v>34</v>
-      </c>
-      <c r="F243" t="s">
+      <c r="E243" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H243">
         <v>1200000</v>
@@ -6433,19 +6432,19 @@
         <v>233</v>
       </c>
       <c r="C244" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D244">
         <v>1118549757</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H244">
         <v>1000000</v>
@@ -6459,19 +6458,19 @@
         <v>234</v>
       </c>
       <c r="C245" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D245">
         <v>1116545880</v>
       </c>
-      <c r="E245" t="s">
-        <v>108</v>
-      </c>
-      <c r="F245">
+      <c r="E245" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F245" s="1">
         <v>17</v>
       </c>
       <c r="G245" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H245">
         <v>2103450</v>
@@ -6485,19 +6484,19 @@
         <v>235</v>
       </c>
       <c r="C246" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D246">
         <v>1118534673</v>
       </c>
-      <c r="E246" t="s">
-        <v>47</v>
-      </c>
-      <c r="F246" t="s">
-        <v>141</v>
+      <c r="E246" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H246">
         <v>952150</v>
@@ -6511,19 +6510,19 @@
         <v>236</v>
       </c>
       <c r="C247" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D247">
         <v>1029640470</v>
       </c>
-      <c r="E247" t="s">
-        <v>47</v>
-      </c>
-      <c r="F247" t="s">
-        <v>138</v>
+      <c r="E247" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G247" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H247">
         <v>7300</v>
@@ -6537,19 +6536,19 @@
         <v>237</v>
       </c>
       <c r="C248" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D248">
         <v>74183154</v>
       </c>
-      <c r="E248" t="s">
-        <v>69</v>
-      </c>
-      <c r="F248">
+      <c r="E248" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F248" s="1">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H248">
         <v>30000000</v>
@@ -6563,19 +6562,19 @@
         <v>238</v>
       </c>
       <c r="C249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D249">
         <v>1018483669</v>
       </c>
-      <c r="E249" t="s">
-        <v>69</v>
-      </c>
-      <c r="F249" t="s">
-        <v>114</v>
+      <c r="E249" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G249" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H249">
         <v>2800000</v>
@@ -6589,19 +6588,19 @@
         <v>239</v>
       </c>
       <c r="C250" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D250">
         <v>33480684</v>
       </c>
-      <c r="E250" t="s">
-        <v>64</v>
-      </c>
-      <c r="F250" t="s">
-        <v>73</v>
+      <c r="E250" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G250" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H250">
         <v>875000</v>
@@ -6615,19 +6614,19 @@
         <v>240</v>
       </c>
       <c r="C251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D251">
         <v>47429862</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F251" t="s">
-        <v>38</v>
+      <c r="F251" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H251">
         <v>6000000</v>
@@ -6641,19 +6640,19 @@
         <v>241</v>
       </c>
       <c r="C252" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D252">
         <v>68295865</v>
       </c>
-      <c r="E252" t="s">
-        <v>29</v>
-      </c>
-      <c r="F252" t="s">
-        <v>138</v>
+      <c r="E252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G252" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H252">
         <v>5500000</v>
@@ -6667,19 +6666,19 @@
         <v>242</v>
       </c>
       <c r="C253" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D253">
         <v>47427174</v>
       </c>
-      <c r="E253" t="s">
-        <v>64</v>
-      </c>
-      <c r="F253" t="s">
-        <v>178</v>
+      <c r="E253" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="G253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H253">
         <v>1531000</v>
@@ -6693,19 +6692,19 @@
         <v>243</v>
       </c>
       <c r="C254" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D254">
         <v>33481785</v>
       </c>
-      <c r="E254" t="s">
-        <v>64</v>
-      </c>
-      <c r="F254" t="s">
-        <v>141</v>
+      <c r="E254" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G254" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H254">
         <v>12000</v>
@@ -6719,19 +6718,19 @@
         <v>244</v>
       </c>
       <c r="C255" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D255">
         <v>1006554074</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F255" t="s">
-        <v>70</v>
-      </c>
       <c r="G255" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H255">
         <v>500000</v>
@@ -6745,19 +6744,19 @@
         <v>245</v>
       </c>
       <c r="C256" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D256">
         <v>1018483669</v>
       </c>
-      <c r="E256" t="s">
-        <v>69</v>
-      </c>
-      <c r="F256" t="s">
-        <v>114</v>
+      <c r="E256" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G256" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H256">
         <v>2500000</v>
@@ -6771,19 +6770,19 @@
         <v>246</v>
       </c>
       <c r="C257" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D257">
         <v>1032373886</v>
       </c>
-      <c r="E257" t="s">
-        <v>64</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="E257" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F257" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H257">
         <v>2000000</v>
@@ -6797,19 +6796,19 @@
         <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D258">
         <v>1118545641</v>
       </c>
-      <c r="E258" t="s">
-        <v>47</v>
-      </c>
-      <c r="F258" t="s">
-        <v>206</v>
+      <c r="E258" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G258" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H258">
         <v>1137950</v>
@@ -6823,19 +6822,19 @@
         <v>248</v>
       </c>
       <c r="C259" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D259">
         <v>1118571010</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F259">
+      <c r="F259" s="1">
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H259">
         <v>4225000</v>
@@ -6849,19 +6848,19 @@
         <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D260">
         <v>1118545641</v>
       </c>
-      <c r="E260" t="s">
-        <v>47</v>
-      </c>
-      <c r="F260" t="s">
-        <v>206</v>
+      <c r="E260" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G260" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H260">
         <v>1137950</v>
@@ -6875,19 +6874,19 @@
         <v>250</v>
       </c>
       <c r="C261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D261">
         <v>9395471</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F261" t="s">
-        <v>53</v>
+      <c r="F261" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G261" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H261">
         <v>5000000</v>
@@ -6901,19 +6900,19 @@
         <v>251</v>
       </c>
       <c r="C262" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D262">
         <v>1118539593</v>
       </c>
-      <c r="E262" t="s">
-        <v>69</v>
-      </c>
-      <c r="F262">
+      <c r="E262" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F262" s="1">
         <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H262">
         <v>12000000</v>
@@ -6927,19 +6926,19 @@
         <v>252</v>
       </c>
       <c r="C263" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D263">
         <v>1118539593</v>
       </c>
-      <c r="E263" t="s">
-        <v>69</v>
-      </c>
-      <c r="F263">
+      <c r="E263" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F263" s="1">
         <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H263">
         <v>3000000</v>
@@ -6953,19 +6952,19 @@
         <v>253</v>
       </c>
       <c r="C264" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D264">
         <v>1118574322</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F264">
+      <c r="F264" s="1">
         <v>37</v>
       </c>
       <c r="G264" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H264">
         <v>10000000</v>
@@ -6979,19 +6978,19 @@
         <v>254</v>
       </c>
       <c r="C265" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D265">
         <v>1118562301</v>
       </c>
-      <c r="E265" t="s">
-        <v>34</v>
-      </c>
-      <c r="F265" t="s">
-        <v>138</v>
+      <c r="E265" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G265" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H265">
         <v>1000000</v>
@@ -7005,19 +7004,19 @@
         <v>255</v>
       </c>
       <c r="C266" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D266">
         <v>1118556533</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F266" t="s">
-        <v>112</v>
+      <c r="F266" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G266" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H266">
         <v>900000</v>
@@ -7031,19 +7030,19 @@
         <v>256</v>
       </c>
       <c r="C267" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D267">
         <v>74795106</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F267" t="s">
-        <v>30</v>
+      <c r="F267" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H267">
         <v>2000000</v>
@@ -7057,19 +7056,19 @@
         <v>257</v>
       </c>
       <c r="C268" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D268">
         <v>1098748654</v>
       </c>
-      <c r="E268" t="s">
-        <v>47</v>
-      </c>
-      <c r="F268">
+      <c r="E268" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F268" s="1">
         <v>29</v>
       </c>
       <c r="G268" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H268">
         <v>1000000</v>
@@ -7083,19 +7082,19 @@
         <v>258</v>
       </c>
       <c r="C269" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D269">
         <v>1118534673</v>
       </c>
-      <c r="E269" t="s">
-        <v>47</v>
-      </c>
-      <c r="F269" t="s">
-        <v>141</v>
+      <c r="E269" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G269" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H269">
         <v>956000</v>
@@ -7109,19 +7108,19 @@
         <v>259</v>
       </c>
       <c r="C270" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D270">
         <v>1118540090</v>
       </c>
-      <c r="E270" t="s">
-        <v>108</v>
-      </c>
-      <c r="F270">
+      <c r="E270" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F270" s="1">
         <v>15</v>
       </c>
       <c r="G270" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H270">
         <v>6000000</v>
@@ -7135,19 +7134,19 @@
         <v>260</v>
       </c>
       <c r="C271" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D271">
         <v>1006409776</v>
       </c>
-      <c r="E271" t="s">
-        <v>108</v>
-      </c>
-      <c r="F271" t="s">
-        <v>252</v>
+      <c r="E271" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="G271" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H271">
         <v>7000000</v>
@@ -7161,19 +7160,19 @@
         <v>261</v>
       </c>
       <c r="C272" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D272">
         <v>91297410</v>
       </c>
-      <c r="E272" t="s">
-        <v>34</v>
-      </c>
-      <c r="F272" t="s">
-        <v>151</v>
+      <c r="E272" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G272" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H272">
         <v>2500000</v>
@@ -7187,19 +7186,19 @@
         <v>262</v>
       </c>
       <c r="C273" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D273">
         <v>23791752</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F273" t="s">
-        <v>141</v>
+      <c r="F273" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G273" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H273">
         <v>850000</v>
@@ -7213,19 +7212,19 @@
         <v>263</v>
       </c>
       <c r="C274" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D274">
         <v>91297410</v>
       </c>
-      <c r="E274" t="s">
-        <v>34</v>
-      </c>
-      <c r="F274" t="s">
-        <v>151</v>
+      <c r="E274" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G274" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H274">
         <v>2500000</v>
@@ -7239,19 +7238,19 @@
         <v>264</v>
       </c>
       <c r="C275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D275">
         <v>74810525</v>
       </c>
-      <c r="E275" t="s">
-        <v>108</v>
-      </c>
-      <c r="F275" t="s">
-        <v>103</v>
+      <c r="E275" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G275" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H275">
         <v>9400000</v>
@@ -7265,19 +7264,19 @@
         <v>265</v>
       </c>
       <c r="C276" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D276">
         <v>1010242323</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F276">
+      <c r="F276" s="1">
         <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H276">
         <v>2000000</v>
@@ -7291,19 +7290,19 @@
         <v>266</v>
       </c>
       <c r="C277" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D277">
         <v>91287052</v>
       </c>
-      <c r="E277" t="s">
-        <v>64</v>
-      </c>
-      <c r="F277" t="s">
-        <v>151</v>
+      <c r="E277" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G277" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H277">
         <v>565300</v>
@@ -7317,19 +7316,19 @@
         <v>267</v>
       </c>
       <c r="C278" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D278">
         <v>1010242323</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F278">
+      <c r="F278" s="1">
         <v>35</v>
       </c>
       <c r="G278" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H278">
         <v>2000000</v>
@@ -7343,19 +7342,19 @@
         <v>268</v>
       </c>
       <c r="C279" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D279">
         <v>1118553792</v>
       </c>
-      <c r="E279" t="s">
-        <v>108</v>
-      </c>
-      <c r="F279" t="s">
-        <v>151</v>
+      <c r="E279" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G279" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H279">
         <v>400000</v>
@@ -7369,19 +7368,19 @@
         <v>269</v>
       </c>
       <c r="C280" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D280">
         <v>1118531951</v>
       </c>
-      <c r="E280" t="s">
-        <v>29</v>
-      </c>
-      <c r="F280" t="s">
-        <v>127</v>
+      <c r="E280" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="G280" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H280">
         <v>3125000</v>
@@ -7395,19 +7394,19 @@
         <v>270</v>
       </c>
       <c r="C281" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D281">
         <v>1118551391</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="1">
         <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H281">
         <v>14000000</v>
@@ -7421,19 +7420,19 @@
         <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D282">
         <v>1120588339</v>
       </c>
-      <c r="E282" t="s">
-        <v>29</v>
-      </c>
-      <c r="F282">
+      <c r="E282" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" s="1">
         <v>19</v>
       </c>
       <c r="G282" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H282">
         <v>2000000</v>
@@ -7447,19 +7446,19 @@
         <v>272</v>
       </c>
       <c r="C283" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D283">
         <v>1118547693</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F283" t="s">
-        <v>138</v>
+      <c r="F283" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G283" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H283">
         <v>7000000</v>
@@ -7473,19 +7472,19 @@
         <v>273</v>
       </c>
       <c r="C284" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D284">
         <v>63322747</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F284" t="s">
-        <v>109</v>
-      </c>
       <c r="G284" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H284">
         <v>1000000</v>
@@ -7499,19 +7498,19 @@
         <v>274</v>
       </c>
       <c r="C285" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D285">
         <v>37749956</v>
       </c>
-      <c r="E285" t="s">
-        <v>108</v>
-      </c>
-      <c r="F285" t="s">
-        <v>156</v>
+      <c r="E285" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G285" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H285">
         <v>1000000</v>
@@ -7525,19 +7524,19 @@
         <v>275</v>
       </c>
       <c r="C286" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D286">
         <v>33481785</v>
       </c>
-      <c r="E286" t="s">
-        <v>64</v>
-      </c>
-      <c r="F286" t="s">
-        <v>141</v>
+      <c r="E286" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G286" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H286">
         <v>956000</v>
@@ -7551,19 +7550,19 @@
         <v>276</v>
       </c>
       <c r="C287" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D287">
         <v>39095679</v>
       </c>
-      <c r="E287" t="s">
-        <v>34</v>
-      </c>
-      <c r="F287" t="s">
-        <v>38</v>
+      <c r="E287" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G287" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H287">
         <v>500000</v>
@@ -7577,19 +7576,19 @@
         <v>277</v>
       </c>
       <c r="C288" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D288">
         <v>74184370</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F288" t="s">
-        <v>73</v>
+      <c r="F288" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G288" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H288">
         <v>500000</v>
@@ -7603,19 +7602,19 @@
         <v>278</v>
       </c>
       <c r="C289" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D289">
         <v>1118543067</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G289" t="s">
         <v>272</v>
-      </c>
-      <c r="F289" t="s">
-        <v>141</v>
-      </c>
-      <c r="G289" t="s">
-        <v>273</v>
       </c>
       <c r="H289">
         <v>10800000</v>
@@ -7629,19 +7628,19 @@
         <v>279</v>
       </c>
       <c r="C290" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D290">
         <v>1125642429</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="1">
         <v>9</v>
       </c>
       <c r="G290" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H290">
         <v>14000000</v>
@@ -7655,19 +7654,19 @@
         <v>280</v>
       </c>
       <c r="C291" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D291">
         <v>1006553976</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F291">
+      <c r="F291" s="1">
         <v>11</v>
       </c>
       <c r="G291" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H291">
         <v>14000000</v>
@@ -7681,19 +7680,19 @@
         <v>281</v>
       </c>
       <c r="C292" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D292">
         <v>1018483669</v>
       </c>
-      <c r="E292" t="s">
-        <v>69</v>
-      </c>
-      <c r="F292" t="s">
-        <v>114</v>
+      <c r="E292" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="G292" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H292">
         <v>800000</v>
@@ -7707,19 +7706,19 @@
         <v>282</v>
       </c>
       <c r="C293" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D293">
         <v>901299272</v>
       </c>
-      <c r="E293" t="s">
-        <v>47</v>
-      </c>
-      <c r="F293" t="s">
-        <v>53</v>
+      <c r="E293" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G293" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H293">
         <v>4000000</v>
@@ -7733,19 +7732,19 @@
         <v>283</v>
       </c>
       <c r="C294" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D294">
         <v>901299272</v>
       </c>
-      <c r="E294" t="s">
-        <v>47</v>
-      </c>
-      <c r="F294" t="s">
-        <v>53</v>
+      <c r="E294" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G294" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H294">
         <v>1000000</v>
@@ -7759,19 +7758,19 @@
         <v>284</v>
       </c>
       <c r="C295" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D295">
         <v>1094370742</v>
       </c>
-      <c r="E295" t="s">
-        <v>34</v>
-      </c>
-      <c r="F295" t="s">
-        <v>206</v>
+      <c r="E295" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G295" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H295">
         <v>1000000</v>
@@ -7785,19 +7784,19 @@
         <v>285</v>
       </c>
       <c r="C296" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D296">
         <v>79040512</v>
       </c>
-      <c r="E296" t="s">
-        <v>108</v>
-      </c>
-      <c r="F296" t="s">
-        <v>141</v>
+      <c r="E296" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G296" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H296">
         <v>3500000</v>
@@ -7816,19 +7815,19 @@
         <v>287</v>
       </c>
       <c r="C298" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D298">
         <v>79040512</v>
       </c>
-      <c r="E298" t="s">
-        <v>108</v>
-      </c>
-      <c r="F298" t="s">
-        <v>138</v>
+      <c r="E298" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G298" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H298">
         <v>1500000</v>
@@ -7842,19 +7841,19 @@
         <v>288</v>
       </c>
       <c r="C299" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D299">
         <v>9395471</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F299" t="s">
-        <v>53</v>
+      <c r="F299" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G299" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H299">
         <v>1100000</v>
@@ -7868,19 +7867,19 @@
         <v>289</v>
       </c>
       <c r="C300" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D300">
         <v>1097389119</v>
       </c>
-      <c r="E300" t="s">
-        <v>284</v>
-      </c>
-      <c r="F300" t="s">
-        <v>138</v>
+      <c r="E300" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G300" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H300">
         <v>7000000</v>
@@ -7899,14 +7898,14 @@
       <c r="D301">
         <v>51754727</v>
       </c>
-      <c r="E301" t="s">
-        <v>80</v>
-      </c>
-      <c r="F301" t="s">
-        <v>22</v>
+      <c r="E301" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="G301" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H301">
         <v>820000</v>
@@ -7920,19 +7919,19 @@
         <v>291</v>
       </c>
       <c r="C302" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D302">
         <v>1013669470</v>
       </c>
-      <c r="E302" t="s">
-        <v>34</v>
-      </c>
-      <c r="F302" t="s">
-        <v>110</v>
+      <c r="E302" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="G302" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H302">
         <v>1040000</v>
@@ -7951,19 +7950,19 @@
         <v>293</v>
       </c>
       <c r="C304" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D304">
         <v>1118554218</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F304" t="s">
-        <v>156</v>
+      <c r="F304" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G304" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H304">
         <v>4000000</v>
@@ -7977,19 +7976,19 @@
         <v>294</v>
       </c>
       <c r="C305" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D305">
         <v>1118555645</v>
       </c>
-      <c r="E305" t="s">
-        <v>34</v>
-      </c>
-      <c r="F305" t="s">
-        <v>112</v>
+      <c r="E305" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G305" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H305">
         <v>1000000</v>
@@ -8003,19 +8002,19 @@
         <v>295</v>
       </c>
       <c r="C306" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D306">
         <v>52366011</v>
       </c>
-      <c r="E306" t="s">
-        <v>34</v>
-      </c>
-      <c r="F306" t="s">
-        <v>172</v>
+      <c r="E306" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="G306" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H306">
         <v>1000000</v>
@@ -8029,19 +8028,19 @@
         <v>296</v>
       </c>
       <c r="C307" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D307">
         <v>47442218</v>
       </c>
-      <c r="E307" t="s">
-        <v>34</v>
-      </c>
-      <c r="F307" t="s">
-        <v>89</v>
+      <c r="E307" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="G307" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H307">
         <v>1990000</v>
@@ -8055,19 +8054,19 @@
         <v>297</v>
       </c>
       <c r="C308" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D308">
         <v>4431762</v>
       </c>
-      <c r="E308" t="s">
-        <v>64</v>
-      </c>
-      <c r="F308" t="s">
-        <v>166</v>
+      <c r="E308" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="G308" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H308">
         <v>1000000</v>
@@ -8081,19 +8080,19 @@
         <v>298</v>
       </c>
       <c r="C309" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D309">
         <v>1092155466</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F309" t="s">
+      <c r="F309" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H309">
         <v>1000000</v>
@@ -8107,19 +8106,19 @@
         <v>299</v>
       </c>
       <c r="C310" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D310">
         <v>51626618</v>
       </c>
-      <c r="E310" t="s">
-        <v>64</v>
-      </c>
-      <c r="F310" t="s">
-        <v>125</v>
+      <c r="E310" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G310" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H310">
         <v>400000</v>
@@ -8133,19 +8132,19 @@
         <v>300</v>
       </c>
       <c r="C311" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D311">
         <v>1037661153</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F311" t="s">
-        <v>38</v>
+      <c r="F311" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H311">
         <v>7000000</v>
@@ -8159,19 +8158,19 @@
         <v>301</v>
       </c>
       <c r="C312" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D312">
         <v>47427085</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F312" t="s">
-        <v>290</v>
+      <c r="F312" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="G312" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H312">
         <v>7000000</v>
@@ -8185,19 +8184,19 @@
         <v>302</v>
       </c>
       <c r="C313" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D313">
         <v>1052384746</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F313">
+      <c r="F313" s="1">
         <v>14</v>
       </c>
       <c r="G313" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H313">
         <v>3000000</v>
@@ -8211,19 +8210,19 @@
         <v>303</v>
       </c>
       <c r="C314" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D314">
         <v>1018418921</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G314" t="s">
         <v>272</v>
-      </c>
-      <c r="F314" t="s">
-        <v>293</v>
-      </c>
-      <c r="G314" t="s">
-        <v>273</v>
       </c>
       <c r="H314">
         <v>14000000</v>
@@ -8237,19 +8236,19 @@
         <v>304</v>
       </c>
       <c r="C315" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D315">
         <v>1118538079</v>
       </c>
-      <c r="E315" t="s">
-        <v>34</v>
-      </c>
-      <c r="F315" t="s">
-        <v>293</v>
+      <c r="E315" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H315">
         <v>5000000</v>
@@ -8263,19 +8262,19 @@
         <v>305</v>
       </c>
       <c r="C316" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D316">
         <v>1118544757</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F316" t="s">
+      <c r="F316" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G316" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H316">
         <v>1000000</v>
@@ -8289,19 +8288,19 @@
         <v>306</v>
       </c>
       <c r="C317" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D317">
         <v>63294939</v>
       </c>
-      <c r="E317" t="s">
-        <v>29</v>
-      </c>
-      <c r="F317" t="s">
-        <v>296</v>
+      <c r="E317" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="G317" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H317">
         <v>870000</v>
@@ -8315,19 +8314,19 @@
         <v>307</v>
       </c>
       <c r="C318" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D318">
         <v>1022376215</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F318" t="s">
-        <v>30</v>
-      </c>
       <c r="G318" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H318">
         <v>870000</v>
@@ -8341,13 +8340,13 @@
         <v>308</v>
       </c>
       <c r="C319" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D319">
         <v>24228337</v>
       </c>
       <c r="G319" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H319">
         <v>2000000</v>
@@ -8361,19 +8360,19 @@
         <v>309</v>
       </c>
       <c r="C320" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D320">
         <v>1065829393</v>
       </c>
-      <c r="E320" t="s">
-        <v>47</v>
-      </c>
-      <c r="F320">
+      <c r="E320" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F320" s="1">
         <v>24</v>
       </c>
       <c r="G320" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H320">
         <v>2083300</v>
@@ -8387,19 +8386,19 @@
         <v>310</v>
       </c>
       <c r="C321" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D321">
         <v>1118537813</v>
       </c>
-      <c r="E321" t="s">
-        <v>323</v>
-      </c>
-      <c r="F321" t="s">
-        <v>296</v>
+      <c r="E321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="G321" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H321">
         <v>7000000</v>
@@ -8413,19 +8412,19 @@
         <v>311</v>
       </c>
       <c r="C322" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D322">
         <v>74183154</v>
       </c>
-      <c r="E322" t="s">
-        <v>69</v>
-      </c>
-      <c r="F322">
+      <c r="E322" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F322" s="1">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H322">
         <v>30000000</v>
@@ -8439,19 +8438,19 @@
         <v>312</v>
       </c>
       <c r="C323" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D323">
         <v>74810525</v>
       </c>
-      <c r="E323" t="s">
-        <v>108</v>
-      </c>
-      <c r="F323" t="s">
-        <v>103</v>
+      <c r="E323" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G323" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H323">
         <v>1000000</v>
@@ -8465,19 +8464,19 @@
         <v>313</v>
       </c>
       <c r="C324" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D324">
         <v>52421972</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F324">
+      <c r="F324" s="1">
         <v>6</v>
       </c>
       <c r="G324" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H324">
         <v>4000000</v>
@@ -8491,19 +8490,19 @@
         <v>314</v>
       </c>
       <c r="C325" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D325">
         <v>46354840</v>
       </c>
-      <c r="E325" t="s">
-        <v>64</v>
-      </c>
-      <c r="F325" t="s">
-        <v>103</v>
+      <c r="E325" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="G325" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H325">
         <v>1000000</v>
@@ -8517,19 +8516,19 @@
         <v>315</v>
       </c>
       <c r="C326" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D326">
         <v>1118571010</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F326">
+      <c r="F326" s="1">
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H326">
         <v>4225000</v>
@@ -8543,19 +8542,19 @@
         <v>316</v>
       </c>
       <c r="C327" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D327">
         <v>51692580</v>
       </c>
-      <c r="E327" t="s">
-        <v>214</v>
-      </c>
-      <c r="F327">
+      <c r="E327" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F327" s="1">
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H327">
         <v>4500000</v>
@@ -8569,19 +8568,19 @@
         <v>317</v>
       </c>
       <c r="C328" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D328">
         <v>9657267</v>
       </c>
-      <c r="E328" t="s">
-        <v>34</v>
-      </c>
-      <c r="F328" t="s">
-        <v>60</v>
+      <c r="E328" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G328" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H328">
         <v>1800000</v>
@@ -8595,19 +8594,19 @@
         <v>318</v>
       </c>
       <c r="C329" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D329">
         <v>1118573758</v>
       </c>
-      <c r="E329" t="s">
-        <v>34</v>
-      </c>
-      <c r="F329" t="s">
+      <c r="E329" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F329" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H329">
         <v>1200000</v>
@@ -8615,13 +8614,13 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B330">
         <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -8632,19 +8631,19 @@
         <v>320</v>
       </c>
       <c r="C331" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D331">
         <v>47433152</v>
       </c>
-      <c r="E331" t="s">
-        <v>64</v>
-      </c>
-      <c r="F331" t="s">
-        <v>38</v>
+      <c r="E331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G331" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H331">
         <v>3000000</v>
@@ -8658,19 +8657,19 @@
         <v>321</v>
       </c>
       <c r="C332" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D332">
         <v>1118554218</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F332" t="s">
-        <v>156</v>
+      <c r="F332" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G332" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H332">
         <v>3000000</v>
@@ -8684,19 +8683,19 @@
         <v>322</v>
       </c>
       <c r="C333" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D333">
         <v>1118556533</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F333" t="s">
-        <v>112</v>
+      <c r="F333" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="G333" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H333">
         <v>900000</v>
@@ -8710,19 +8709,19 @@
         <v>323</v>
       </c>
       <c r="C334" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D334">
         <v>74795106</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F334" t="s">
-        <v>30</v>
+      <c r="F334" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H334">
         <v>1178600</v>
@@ -8736,19 +8735,19 @@
         <v>324</v>
       </c>
       <c r="C335" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D335">
         <v>51692580</v>
       </c>
-      <c r="E335" t="s">
-        <v>214</v>
-      </c>
-      <c r="F335">
+      <c r="E335" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F335" s="1">
         <v>12</v>
       </c>
       <c r="G335" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H335">
         <v>1500000</v>
@@ -8762,19 +8761,19 @@
         <v>325</v>
       </c>
       <c r="C336" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D336">
         <v>91297410</v>
       </c>
-      <c r="E336" t="s">
-        <v>34</v>
-      </c>
-      <c r="F336" t="s">
-        <v>156</v>
+      <c r="E336" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="G336" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H336">
         <v>2500000</v>
@@ -8788,19 +8787,19 @@
         <v>326</v>
       </c>
       <c r="C337" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D337">
         <v>91297410</v>
       </c>
-      <c r="E337" t="s">
-        <v>34</v>
-      </c>
-      <c r="F337" t="s">
-        <v>151</v>
+      <c r="E337" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="G337" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H337">
         <v>2500000</v>
@@ -8814,19 +8813,19 @@
         <v>327</v>
       </c>
       <c r="C338" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D338">
         <v>6763321</v>
       </c>
-      <c r="E338" t="s">
-        <v>284</v>
-      </c>
-      <c r="F338" t="s">
-        <v>293</v>
+      <c r="E338" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G338" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H338">
         <v>5000000</v>
@@ -8840,19 +8839,19 @@
         <v>328</v>
       </c>
       <c r="C339" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D339">
         <v>1032373886</v>
       </c>
-      <c r="E339" t="s">
-        <v>64</v>
-      </c>
-      <c r="F339" t="s">
+      <c r="E339" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F339" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G339" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H339">
         <v>2000000</v>
@@ -8871,14 +8870,14 @@
       <c r="D340">
         <v>19302336</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F340">
+      <c r="F340" s="1">
         <v>23</v>
       </c>
       <c r="G340" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H340">
         <v>2000000</v>
@@ -8892,19 +8891,19 @@
         <v>330</v>
       </c>
       <c r="C341" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D341">
         <v>1118574027</v>
       </c>
-      <c r="E341" t="s">
-        <v>34</v>
-      </c>
-      <c r="F341">
+      <c r="E341" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F341" s="1">
         <v>26</v>
       </c>
       <c r="G341" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H341">
         <v>10000000</v>
@@ -8918,19 +8917,19 @@
         <v>331</v>
       </c>
       <c r="C342" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D342">
         <v>1006409776</v>
       </c>
-      <c r="E342" t="s">
-        <v>108</v>
-      </c>
-      <c r="F342" t="s">
-        <v>252</v>
+      <c r="E342" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="G342" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H342">
         <v>1034500</v>
@@ -8944,19 +8943,19 @@
         <v>332</v>
       </c>
       <c r="C343" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D343">
         <v>1118545641</v>
       </c>
-      <c r="E343" t="s">
-        <v>47</v>
-      </c>
-      <c r="F343" t="s">
-        <v>206</v>
+      <c r="E343" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G343" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H343">
         <v>1137950</v>
@@ -8975,19 +8974,19 @@
         <v>334</v>
       </c>
       <c r="C345" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D345">
         <v>1118545641</v>
       </c>
-      <c r="E345" t="s">
-        <v>47</v>
-      </c>
-      <c r="F345" t="s">
-        <v>206</v>
+      <c r="E345" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G345" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H345">
         <v>1137950</v>
@@ -9001,19 +9000,19 @@
         <v>335</v>
       </c>
       <c r="C346" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D346">
         <v>51626618</v>
       </c>
-      <c r="E346" t="s">
-        <v>64</v>
-      </c>
-      <c r="F346" t="s">
-        <v>125</v>
+      <c r="E346" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G346" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H346">
         <v>4000000</v>
@@ -9021,13 +9020,13 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B347">
         <v>336</v>
       </c>
       <c r="C347" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -9043,19 +9042,19 @@
         <v>338</v>
       </c>
       <c r="C349" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D349">
         <v>53017217</v>
       </c>
-      <c r="E349" t="s">
-        <v>29</v>
-      </c>
-      <c r="F349">
+      <c r="E349" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F349" s="1">
         <v>17</v>
       </c>
       <c r="G349" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H349">
         <v>4000000</v>
@@ -9074,19 +9073,19 @@
         <v>340</v>
       </c>
       <c r="C351" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D351">
         <v>1118573758</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F351" t="s">
-        <v>172</v>
+      <c r="F351" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="G351" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H351">
         <v>7000000</v>
@@ -9100,19 +9099,19 @@
         <v>341</v>
       </c>
       <c r="C352" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D352">
         <v>1118552897</v>
       </c>
-      <c r="E352" t="s">
-        <v>29</v>
-      </c>
-      <c r="F352">
+      <c r="E352" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F352" s="1">
         <v>1</v>
       </c>
       <c r="G352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H352">
         <v>12607300</v>
@@ -9126,19 +9125,19 @@
         <v>342</v>
       </c>
       <c r="C353" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D353">
         <v>1118562301</v>
       </c>
-      <c r="E353" t="s">
-        <v>34</v>
-      </c>
-      <c r="F353" t="s">
-        <v>138</v>
+      <c r="E353" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="G353" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H353">
         <v>100000</v>

--- a/public/imports/pagos.xlsx
+++ b/public/imports/pagos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\rivarca\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE45B07-F8CE-429F-A60C-132C50FA95BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8965264-8B47-47D2-85A0-FA89D4E833C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B8875AEE-1F93-456E-A25B-5085BEAD0B47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="323">
   <si>
     <t>FECHA</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>NESTOR ALIRIO CUELLAR BLANCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A27 </t>
   </si>
   <si>
     <t>JHONY MATEO OLAYA RUEDA - COMERCIALIZADORA LLANO FISH</t>
@@ -1353,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6004F521-D141-49C3-8FB2-2C8C6456D3B6}">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,7 +1484,7 @@
         <v>51754727</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1">
         <v>31</v>
@@ -1513,7 +1510,7 @@
         <v>46382157</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1">
         <v>29</v>
@@ -1539,7 +1536,7 @@
         <v>74187847</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1">
         <v>9</v>
@@ -1605,7 +1602,7 @@
         <v>45141</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -1631,7 +1628,7 @@
         <v>45142</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -1842,7 +1839,7 @@
         <v>19424910</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1862,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1010015896</v>
@@ -1874,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <v>5000000</v>
@@ -1888,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>1065829393</v>
@@ -1919,7 +1916,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1065829393</v>
@@ -1931,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H26">
         <v>3000000</v>
@@ -1957,7 +1954,7 @@
         <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27">
         <v>1040000</v>
@@ -1971,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>9657267</v>
@@ -1983,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28">
         <v>1800000</v>
@@ -1997,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>1118573758</v>
@@ -2009,7 +2006,7 @@
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29">
         <v>1200000</v>
@@ -2028,7 +2025,7 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>1118534104</v>
@@ -2054,7 +2051,7 @@
         <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32">
         <v>1118534104</v>
@@ -2080,13 +2077,13 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>37319251</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="1">
         <v>17</v>
@@ -2106,7 +2103,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34">
         <v>1118544757</v>
@@ -2132,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>5600266</v>
@@ -2144,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35">
         <v>1200000</v>
@@ -2158,7 +2155,7 @@
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>23791752</v>
@@ -2184,13 +2181,13 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37">
         <v>1006554074</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="1">
         <v>14</v>
@@ -2210,13 +2207,13 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38">
         <v>1018483669</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" s="1">
         <v>13</v>
@@ -2236,7 +2233,7 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>74184370</v>
@@ -2248,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39">
         <v>3000000</v>
@@ -2256,13 +2253,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B40">
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2285,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H41">
         <v>500000</v>
@@ -2299,7 +2296,7 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <v>1049659149</v>
@@ -2325,7 +2322,7 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <v>1094370742</v>
@@ -2351,19 +2348,19 @@
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>46382157</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F44" s="1">
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H44">
         <v>1650000</v>
@@ -2377,7 +2374,7 @@
         <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>1010242323</v>
@@ -2403,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <v>1055312774</v>
@@ -2423,24 +2420,24 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47">
         <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2451,19 +2448,19 @@
         <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49">
         <v>1018483669</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1">
         <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>800000</v>
@@ -2477,13 +2474,13 @@
         <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50">
         <v>51626618</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="1">
         <v>30</v>
@@ -2503,13 +2500,13 @@
         <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51">
         <v>37319251</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1">
         <v>17</v>
@@ -2529,7 +2526,7 @@
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52">
         <v>1026561711</v>
@@ -2541,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H52">
         <v>5000000</v>
@@ -2555,7 +2552,7 @@
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53">
         <v>1015404857</v>
@@ -2567,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H53">
         <v>1990000</v>
@@ -2581,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54">
         <v>1118556533</v>
@@ -2601,13 +2598,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2656,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H57">
         <v>1000000</v>
@@ -2670,7 +2667,7 @@
         <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>17413867</v>
@@ -2682,7 +2679,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H58">
         <v>1000000</v>
@@ -2708,7 +2705,7 @@
         <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H59">
         <v>1040000</v>
@@ -2722,7 +2719,7 @@
         <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>9657267</v>
@@ -2734,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H60">
         <v>1800000</v>
@@ -2748,7 +2745,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>1118573758</v>
@@ -2760,7 +2757,7 @@
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H61">
         <v>1200000</v>
@@ -2771,7 +2768,7 @@
         <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2782,7 +2779,7 @@
         <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2793,7 +2790,7 @@
         <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2804,7 +2801,7 @@
         <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2815,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2826,7 +2823,7 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2837,7 +2834,7 @@
         <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2848,7 +2845,7 @@
         <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2859,7 +2856,7 @@
         <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2870,7 +2867,7 @@
         <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2881,7 +2878,7 @@
         <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2892,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2903,7 +2900,7 @@
         <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -2914,7 +2911,7 @@
         <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2925,7 +2922,7 @@
         <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2936,7 +2933,7 @@
         <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2947,7 +2944,7 @@
         <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -2958,7 +2955,7 @@
         <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -2969,7 +2966,7 @@
         <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2980,7 +2977,7 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -2991,7 +2988,7 @@
         <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3002,7 +2999,7 @@
         <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3013,7 +3010,7 @@
         <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3024,7 +3021,7 @@
         <v>74</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3035,7 +3032,7 @@
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3046,7 +3043,7 @@
         <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3057,7 +3054,7 @@
         <v>77</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3068,7 +3065,7 @@
         <v>78</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3079,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3090,7 +3087,7 @@
         <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3101,7 +3098,7 @@
         <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3112,7 +3109,7 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3123,7 +3120,7 @@
         <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3134,7 +3131,7 @@
         <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3145,7 +3142,7 @@
         <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3156,7 +3153,7 @@
         <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3167,7 +3164,7 @@
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3178,7 +3175,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3189,7 +3186,7 @@
         <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3200,7 +3197,7 @@
         <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3222,7 +3219,7 @@
         <v>92</v>
       </c>
       <c r="C103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3233,7 +3230,7 @@
         <v>93</v>
       </c>
       <c r="C104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3244,7 +3241,7 @@
         <v>94</v>
       </c>
       <c r="C105" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3255,7 +3252,7 @@
         <v>95</v>
       </c>
       <c r="C106" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3266,7 +3263,7 @@
         <v>96</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3277,7 +3274,7 @@
         <v>97</v>
       </c>
       <c r="C108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3288,7 +3285,7 @@
         <v>98</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3299,7 +3296,7 @@
         <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3310,7 +3307,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3324,7 +3321,7 @@
         <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D112">
         <v>9395471</v>
@@ -3336,7 +3333,7 @@
         <v>42</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H112">
         <v>5000000</v>
@@ -3355,7 +3352,7 @@
         <v>103</v>
       </c>
       <c r="C114" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D114">
         <v>19429910</v>
@@ -3367,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H114">
         <v>3074133.67</v>
@@ -3393,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H115">
         <v>1474550</v>
@@ -3401,10 +3398,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C116" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -3415,7 +3412,7 @@
         <v>106</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117">
         <v>1031133312</v>
@@ -3427,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H117">
         <v>1000000</v>
@@ -3446,7 +3443,7 @@
         <v>108</v>
       </c>
       <c r="C119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D119">
         <v>74184370</v>
@@ -3477,19 +3474,19 @@
         <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D121">
         <v>74183154</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H121">
         <v>40000000</v>
@@ -3503,7 +3500,7 @@
         <v>111</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D122">
         <v>1010242323</v>
@@ -3515,7 +3512,7 @@
         <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H122">
         <v>2000000</v>
@@ -3529,7 +3526,7 @@
         <v>112</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D123">
         <v>1118334104</v>
@@ -3541,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="G123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H123">
         <v>10000000</v>
@@ -3549,13 +3546,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B124">
         <v>113</v>
       </c>
       <c r="C124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3566,7 +3563,7 @@
         <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D125">
         <v>1098748654</v>
@@ -3578,7 +3575,7 @@
         <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H125">
         <v>8000000</v>
@@ -3592,13 +3589,13 @@
         <v>115</v>
       </c>
       <c r="C126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D126">
         <v>63322747</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F126" s="1">
         <v>29</v>
@@ -3612,13 +3609,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B127">
         <v>116</v>
       </c>
       <c r="C127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3641,7 +3638,7 @@
         <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H128">
         <v>2500000</v>
@@ -3655,7 +3652,7 @@
         <v>118</v>
       </c>
       <c r="C129" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D129">
         <v>1118556533</v>
@@ -3667,7 +3664,7 @@
         <v>20</v>
       </c>
       <c r="G129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H129">
         <v>2000000</v>
@@ -3681,19 +3678,19 @@
         <v>119</v>
       </c>
       <c r="C130" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D130">
         <v>1006554074</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F130" s="1">
         <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H130">
         <v>1000000</v>
@@ -3707,19 +3704,19 @@
         <v>120</v>
       </c>
       <c r="C131" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D131">
         <v>1018483669</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F131" s="1">
         <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H131">
         <v>800000</v>
@@ -3733,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="C132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D132">
         <v>1098748654</v>
@@ -3745,7 +3742,7 @@
         <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H132">
         <v>8000000</v>
@@ -3759,19 +3756,19 @@
         <v>122</v>
       </c>
       <c r="C133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D133">
         <v>33480684</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F133" s="1">
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H133">
         <v>4000000</v>
@@ -3785,7 +3782,7 @@
         <v>123</v>
       </c>
       <c r="C134" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D134">
         <v>1118544757</v>
@@ -3797,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="G134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H134">
         <v>1000000</v>
@@ -3828,7 +3825,7 @@
         <v>5</v>
       </c>
       <c r="G136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H136">
         <v>500000</v>
@@ -3847,7 +3844,7 @@
         <v>127</v>
       </c>
       <c r="C138" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D138">
         <v>74185470</v>
@@ -3859,7 +3856,7 @@
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H138">
         <v>10000000</v>
@@ -3873,7 +3870,7 @@
         <v>128</v>
       </c>
       <c r="C139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D139">
         <v>39095679</v>
@@ -3885,7 +3882,7 @@
         <v>5</v>
       </c>
       <c r="G139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H139">
         <v>1000000</v>
@@ -3904,19 +3901,19 @@
         <v>130</v>
       </c>
       <c r="C141" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D141">
         <v>33480684</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F141" s="1">
         <v>10</v>
       </c>
       <c r="G141" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H141">
         <v>3000000</v>
@@ -3930,19 +3927,19 @@
         <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D142">
         <v>33480684</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F142" s="1">
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H142">
         <v>2000000</v>
@@ -3956,19 +3953,19 @@
         <v>132</v>
       </c>
       <c r="C143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D143">
         <v>51625618</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F143" s="1">
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H143">
         <v>400000</v>
@@ -3982,19 +3979,19 @@
         <v>133</v>
       </c>
       <c r="C144" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D144">
         <v>33481785</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F144" s="1">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H144">
         <v>9500000</v>
@@ -4008,7 +4005,7 @@
         <v>134</v>
       </c>
       <c r="C145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D145">
         <v>3138438250</v>
@@ -4020,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H145">
         <v>10000000</v>
@@ -4034,19 +4031,19 @@
         <v>135</v>
       </c>
       <c r="C146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D146">
         <v>1032388847</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F146" s="1">
         <v>16</v>
       </c>
       <c r="G146" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H146">
         <v>5000000</v>
@@ -4060,7 +4057,7 @@
         <v>136</v>
       </c>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D147">
         <v>1118574322</v>
@@ -4072,7 +4069,7 @@
         <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H147">
         <v>10000000</v>
@@ -4091,7 +4088,7 @@
         <v>138</v>
       </c>
       <c r="C149" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D149">
         <v>1010242323</v>
@@ -4103,7 +4100,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H149">
         <v>2000000</v>
@@ -4117,19 +4114,19 @@
         <v>139</v>
       </c>
       <c r="C150" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D150">
         <v>1032373886</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F150" s="1">
         <v>4</v>
       </c>
       <c r="G150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H150">
         <v>2000000</v>
@@ -4143,7 +4140,7 @@
         <v>140</v>
       </c>
       <c r="C151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D151">
         <v>1118571010</v>
@@ -4155,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="G151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H151">
         <v>30000000</v>
@@ -4174,7 +4171,7 @@
         <v>142</v>
       </c>
       <c r="C153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D153">
         <v>1029640470</v>
@@ -4186,7 +4183,7 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H153">
         <v>2869650</v>
@@ -4200,7 +4197,7 @@
         <v>143</v>
       </c>
       <c r="C154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D154">
         <v>1029640470</v>
@@ -4212,7 +4209,7 @@
         <v>22</v>
       </c>
       <c r="G154" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H154">
         <v>949250</v>
@@ -4226,7 +4223,7 @@
         <v>144</v>
       </c>
       <c r="C155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D155">
         <v>1118534673</v>
@@ -4238,7 +4235,7 @@
         <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H155">
         <v>952150</v>
@@ -4252,19 +4249,19 @@
         <v>145</v>
       </c>
       <c r="C156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D156">
         <v>47433152</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F156" s="1">
         <v>5</v>
       </c>
       <c r="G156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H156">
         <v>5000000</v>
@@ -4278,7 +4275,7 @@
         <v>146</v>
       </c>
       <c r="C157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D157">
         <v>9657267</v>
@@ -4290,7 +4287,7 @@
         <v>3</v>
       </c>
       <c r="G157" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H157">
         <v>1800000</v>
@@ -4304,7 +4301,7 @@
         <v>147</v>
       </c>
       <c r="C158" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D158">
         <v>1118573758</v>
@@ -4316,7 +4313,7 @@
         <v>4</v>
       </c>
       <c r="G158" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H158">
         <v>1200000</v>
@@ -4330,7 +4327,7 @@
         <v>148</v>
       </c>
       <c r="C159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D159">
         <v>1052384746</v>
@@ -4342,7 +4339,7 @@
         <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H159">
         <v>2000000</v>
@@ -4356,7 +4353,7 @@
         <v>149</v>
       </c>
       <c r="C160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D160">
         <v>901299272</v>
@@ -4368,7 +4365,7 @@
         <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H160">
         <v>1000000</v>
@@ -4394,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="G161" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H161">
         <v>1040000</v>
@@ -4408,7 +4405,7 @@
         <v>151</v>
       </c>
       <c r="C162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D162">
         <v>1098748654</v>
@@ -4420,7 +4417,7 @@
         <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H162">
         <v>4000000</v>
@@ -4434,7 +4431,7 @@
         <v>152</v>
       </c>
       <c r="C163" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D163">
         <v>1118556533</v>
@@ -4446,7 +4443,7 @@
         <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H163">
         <v>900000</v>
@@ -4460,19 +4457,19 @@
         <v>153</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D164">
         <v>91287052</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F164" s="1">
         <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H164">
         <v>20000000</v>
@@ -4486,19 +4483,19 @@
         <v>154</v>
       </c>
       <c r="C165" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D165">
         <v>33481785</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F165" s="1">
         <v>21</v>
       </c>
       <c r="G165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H165">
         <v>960000</v>
@@ -4512,7 +4509,7 @@
         <v>155</v>
       </c>
       <c r="C166" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D166">
         <v>9395471</v>
@@ -4524,7 +4521,7 @@
         <v>42</v>
       </c>
       <c r="G166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H166">
         <v>1000000</v>
@@ -4538,7 +4535,7 @@
         <v>156</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D167">
         <v>91297410</v>
@@ -4550,7 +4547,7 @@
         <v>28</v>
       </c>
       <c r="G167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H167">
         <v>5000000</v>
@@ -4564,7 +4561,7 @@
         <v>157</v>
       </c>
       <c r="C168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D168">
         <v>68295865</v>
@@ -4576,7 +4573,7 @@
         <v>22</v>
       </c>
       <c r="G168" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H168">
         <v>5000000</v>
@@ -4590,7 +4587,7 @@
         <v>158</v>
       </c>
       <c r="C169" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D169">
         <v>60292754</v>
@@ -4602,7 +4599,7 @@
         <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H169">
         <v>23000000</v>
@@ -4616,7 +4613,7 @@
         <v>159</v>
       </c>
       <c r="C170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D170">
         <v>1118562301</v>
@@ -4628,7 +4625,7 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H170">
         <v>10000000</v>
@@ -4659,7 +4656,7 @@
         <v>17</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H172">
         <v>2080000</v>
@@ -4673,19 +4670,19 @@
         <v>162</v>
       </c>
       <c r="C173" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D173">
         <v>80164501</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F173" s="1">
         <v>1</v>
       </c>
       <c r="G173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H173">
         <v>5000000</v>
@@ -4699,7 +4696,7 @@
         <v>163</v>
       </c>
       <c r="C174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D174">
         <v>1118562609</v>
@@ -4711,7 +4708,7 @@
         <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H174">
         <v>5000000</v>
@@ -4725,19 +4722,19 @@
         <v>164</v>
       </c>
       <c r="C175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D175">
         <v>9431762</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F175" s="1">
         <v>15</v>
       </c>
       <c r="G175" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H175">
         <v>5000000</v>
@@ -4751,19 +4748,19 @@
         <v>165</v>
       </c>
       <c r="C176" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D176">
         <v>33480684</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F176" s="1">
         <v>10</v>
       </c>
       <c r="G176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H176">
         <v>1000000</v>
@@ -4777,19 +4774,19 @@
         <v>166</v>
       </c>
       <c r="C177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D177">
         <v>37749956</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F177" s="1">
         <v>28</v>
       </c>
       <c r="G177" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H177">
         <v>10000000</v>
@@ -4803,19 +4800,19 @@
         <v>167</v>
       </c>
       <c r="C178" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D178">
         <v>51615618</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F178" s="1">
         <v>30</v>
       </c>
       <c r="G178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H178">
         <v>400000</v>
@@ -4829,19 +4826,19 @@
         <v>168</v>
       </c>
       <c r="C179" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D179">
         <v>63322747</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F179" s="1">
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H179">
         <v>3000000</v>
@@ -4860,7 +4857,7 @@
         <v>170</v>
       </c>
       <c r="C181" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D181">
         <v>1118555645</v>
@@ -4872,7 +4869,7 @@
         <v>20</v>
       </c>
       <c r="G181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H181">
         <v>8500000</v>
@@ -4886,7 +4883,7 @@
         <v>171</v>
       </c>
       <c r="C182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D182">
         <v>1118555645</v>
@@ -4898,7 +4895,7 @@
         <v>20</v>
       </c>
       <c r="G182" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H182">
         <v>1500000</v>
@@ -4912,7 +4909,7 @@
         <v>172</v>
       </c>
       <c r="C183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D183">
         <v>52366011</v>
@@ -4924,7 +4921,7 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H183">
         <v>10000000</v>
@@ -4938,7 +4935,7 @@
         <v>173</v>
       </c>
       <c r="C184" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D184">
         <v>7185599</v>
@@ -4950,7 +4947,7 @@
         <v>23</v>
       </c>
       <c r="G184" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H184">
         <v>10000000</v>
@@ -4964,19 +4961,19 @@
         <v>174</v>
       </c>
       <c r="C185" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D185">
         <v>46354840</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F185" s="1">
         <v>23</v>
       </c>
       <c r="G185" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H185">
         <v>10000000</v>
@@ -4990,19 +4987,19 @@
         <v>175</v>
       </c>
       <c r="C186" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D186">
         <v>1032369849</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F186" s="1">
         <v>22</v>
       </c>
       <c r="G186" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H186">
         <v>10000000</v>
@@ -5016,19 +5013,19 @@
         <v>176</v>
       </c>
       <c r="C187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D187">
         <v>47427174</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F187" s="1">
         <v>2</v>
       </c>
       <c r="G187" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H187">
         <v>10000000</v>
@@ -5047,7 +5044,7 @@
         <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D189">
         <v>1118562609</v>
@@ -5059,7 +5056,7 @@
         <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H189">
         <v>5000000</v>
@@ -5073,19 +5070,19 @@
         <v>179</v>
       </c>
       <c r="C190" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D190">
         <v>47442215</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F190" s="1">
         <v>1</v>
       </c>
       <c r="G190" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H190">
         <v>5000000</v>
@@ -5099,7 +5096,7 @@
         <v>180</v>
       </c>
       <c r="C191" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D191">
         <v>1118544757</v>
@@ -5111,7 +5108,7 @@
         <v>4</v>
       </c>
       <c r="G191" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H191">
         <v>1000000</v>
@@ -5125,7 +5122,7 @@
         <v>181</v>
       </c>
       <c r="C192" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D192">
         <v>1118556533</v>
@@ -5137,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="G192" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H192">
         <v>2000000</v>
@@ -5145,13 +5142,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B193">
         <v>182</v>
       </c>
       <c r="C193" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,7 +5159,7 @@
         <v>183</v>
       </c>
       <c r="C194" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D194">
         <v>1118556533</v>
@@ -5174,7 +5171,7 @@
         <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H194">
         <v>900000</v>
@@ -5188,19 +5185,19 @@
         <v>184</v>
       </c>
       <c r="C195" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D195">
         <v>1118542090</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F195" s="1">
         <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H195">
         <v>20000000</v>
@@ -5214,19 +5211,19 @@
         <v>185</v>
       </c>
       <c r="C196" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D196">
         <v>74183154</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F196" s="1">
         <v>1</v>
       </c>
       <c r="G196" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H196">
         <v>30000000</v>
@@ -5240,7 +5237,7 @@
         <v>186</v>
       </c>
       <c r="C197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D197">
         <v>91297410</v>
@@ -5252,7 +5249,7 @@
         <v>27</v>
       </c>
       <c r="G197" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H197">
         <v>5000000</v>
@@ -5266,7 +5263,7 @@
         <v>187</v>
       </c>
       <c r="C198" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D198">
         <v>1118574322</v>
@@ -5278,7 +5275,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H198">
         <v>2000000</v>
@@ -5292,7 +5289,7 @@
         <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D199">
         <v>1118562301</v>
@@ -5304,7 +5301,7 @@
         <v>22</v>
       </c>
       <c r="G199" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H199">
         <v>500000</v>
@@ -5318,7 +5315,7 @@
         <v>189</v>
       </c>
       <c r="C200" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D200">
         <v>1118571010</v>
@@ -5330,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H200">
         <v>4225000</v>
@@ -5344,7 +5341,7 @@
         <v>190</v>
       </c>
       <c r="C201" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D201">
         <v>901299272</v>
@@ -5356,7 +5353,7 @@
         <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H201">
         <v>1000000</v>
@@ -5370,19 +5367,19 @@
         <v>191</v>
       </c>
       <c r="C202" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D202">
         <v>1032373886</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F202" s="1">
         <v>4</v>
       </c>
       <c r="G202" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H202">
         <v>2000000</v>
@@ -5396,7 +5393,7 @@
         <v>192</v>
       </c>
       <c r="C203" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D203">
         <v>1120588339</v>
@@ -5408,7 +5405,7 @@
         <v>19</v>
       </c>
       <c r="G203" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H203">
         <v>21000000</v>
@@ -5422,19 +5419,19 @@
         <v>193</v>
       </c>
       <c r="C204" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D204">
         <v>1018483669</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F204" s="1">
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H204">
         <v>800000</v>
@@ -5460,7 +5457,7 @@
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H205">
         <v>1474550</v>
@@ -5486,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H206">
         <v>1474550</v>
@@ -5512,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="G207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H207">
         <v>5898134</v>
@@ -5526,7 +5523,7 @@
         <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D208">
         <v>1031133312</v>
@@ -5538,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="G208" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H208">
         <v>1000000</v>
@@ -5552,19 +5549,19 @@
         <v>198</v>
       </c>
       <c r="C209" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D209">
         <v>1116545880</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F209" s="1">
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H209">
         <v>14000000</v>
@@ -5578,7 +5575,7 @@
         <v>199</v>
       </c>
       <c r="C210" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D210">
         <v>53017217</v>
@@ -5590,7 +5587,7 @@
         <v>17</v>
       </c>
       <c r="G210" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H210">
         <v>7000000</v>
@@ -5604,7 +5601,7 @@
         <v>200</v>
       </c>
       <c r="C211" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D211">
         <v>1118573758</v>
@@ -5616,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="G211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H211">
         <v>1200000</v>
@@ -5630,7 +5627,7 @@
         <v>201</v>
       </c>
       <c r="C212" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D212">
         <v>9657267</v>
@@ -5642,7 +5639,7 @@
         <v>3</v>
       </c>
       <c r="G212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H212">
         <v>1800000</v>
@@ -5656,19 +5653,19 @@
         <v>202</v>
       </c>
       <c r="C213" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D213">
         <v>91287052</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F213" s="1">
         <v>27</v>
       </c>
       <c r="G213" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H213">
         <v>565300</v>
@@ -5682,7 +5679,7 @@
         <v>203</v>
       </c>
       <c r="C214" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D214">
         <v>23791752</v>
@@ -5694,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="G214" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H214">
         <v>5000000</v>
@@ -5708,7 +5705,7 @@
         <v>204</v>
       </c>
       <c r="C215" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D215">
         <v>1118545641</v>
@@ -5720,7 +5717,7 @@
         <v>18</v>
       </c>
       <c r="G215" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H215">
         <v>5000000</v>
@@ -5728,13 +5725,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B216">
         <v>205</v>
       </c>
       <c r="C216" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,19 +5742,19 @@
         <v>206</v>
       </c>
       <c r="C217" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D217">
         <v>1118553792</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H217">
         <v>6000000</v>
@@ -5771,7 +5768,7 @@
         <v>207</v>
       </c>
       <c r="C218" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D218">
         <v>1118545641</v>
@@ -5780,10 +5777,10 @@
         <v>46</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G218" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H218">
         <v>2000000</v>
@@ -5797,19 +5794,19 @@
         <v>208</v>
       </c>
       <c r="C219" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D219">
         <v>33481785</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G219" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H219">
         <v>500000</v>
@@ -5823,7 +5820,7 @@
         <v>209</v>
       </c>
       <c r="C220" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D220">
         <v>1031133312</v>
@@ -5835,7 +5832,7 @@
         <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H220">
         <v>1000000</v>
@@ -5849,19 +5846,19 @@
         <v>210</v>
       </c>
       <c r="C221" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D221">
         <v>9431762</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G221" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H221">
         <v>5000000</v>
@@ -5875,19 +5872,19 @@
         <v>211</v>
       </c>
       <c r="C222" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D222">
         <v>51692580</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F222" s="1">
         <v>12</v>
       </c>
       <c r="G222" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H222">
         <v>4700000</v>
@@ -5901,7 +5898,7 @@
         <v>212</v>
       </c>
       <c r="C223" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D223">
         <v>1118571788</v>
@@ -5913,7 +5910,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H223">
         <v>5000000</v>
@@ -5927,19 +5924,19 @@
         <v>213</v>
       </c>
       <c r="C224" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D224">
         <v>9431762</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G224" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H224">
         <v>500000</v>
@@ -5953,19 +5950,19 @@
         <v>214</v>
       </c>
       <c r="C225" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D225">
         <v>1006554074</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F225" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G225" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H225">
         <v>3000000</v>
@@ -5979,7 +5976,7 @@
         <v>215</v>
       </c>
       <c r="C226" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D226">
         <v>1010242323</v>
@@ -5991,7 +5988,7 @@
         <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H226">
         <v>10000000</v>
@@ -6005,7 +6002,7 @@
         <v>216</v>
       </c>
       <c r="C227" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D227">
         <v>1010242323</v>
@@ -6017,7 +6014,7 @@
         <v>35</v>
       </c>
       <c r="G227" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H227">
         <v>2000000</v>
@@ -6031,7 +6028,7 @@
         <v>217</v>
       </c>
       <c r="C228" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D228">
         <v>1052384746</v>
@@ -6043,7 +6040,7 @@
         <v>13</v>
       </c>
       <c r="G228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H228">
         <v>2000000</v>
@@ -6057,19 +6054,19 @@
         <v>218</v>
       </c>
       <c r="C229" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D229">
         <v>1118539393</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F229" s="1">
         <v>7</v>
       </c>
       <c r="G229" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H229">
         <v>5000000</v>
@@ -6083,7 +6080,7 @@
         <v>219</v>
       </c>
       <c r="C230" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D230">
         <v>1052384746</v>
@@ -6095,7 +6092,7 @@
         <v>13</v>
       </c>
       <c r="G230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H230">
         <v>1000000</v>
@@ -6118,10 +6115,10 @@
         <v>33</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H231">
         <v>1040000</v>
@@ -6144,10 +6141,10 @@
         <v>33</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G232" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H232">
         <v>1040000</v>
@@ -6161,7 +6158,7 @@
         <v>222</v>
       </c>
       <c r="C233" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D233">
         <v>1118534104</v>
@@ -6170,10 +6167,10 @@
         <v>46</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G233" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H233">
         <v>900000</v>
@@ -6187,7 +6184,7 @@
         <v>223</v>
       </c>
       <c r="C234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D234">
         <v>1118534104</v>
@@ -6196,10 +6193,10 @@
         <v>46</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G234" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H234">
         <v>900000</v>
@@ -6213,7 +6210,7 @@
         <v>224</v>
       </c>
       <c r="C235" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D235">
         <v>1049659149</v>
@@ -6225,7 +6222,7 @@
         <v>6</v>
       </c>
       <c r="G235" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H235">
         <v>5000000</v>
@@ -6239,7 +6236,7 @@
         <v>225</v>
       </c>
       <c r="C236" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D236">
         <v>1118534104</v>
@@ -6248,10 +6245,10 @@
         <v>46</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G236" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H236">
         <v>900000</v>
@@ -6259,13 +6256,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B237">
         <v>226</v>
       </c>
       <c r="C237" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -6288,7 +6285,7 @@
         <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H238">
         <v>1000000</v>
@@ -6302,7 +6299,7 @@
         <v>228</v>
       </c>
       <c r="C239" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D239">
         <v>1118538079</v>
@@ -6311,10 +6308,10 @@
         <v>14</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G239" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H239">
         <v>3000000</v>
@@ -6328,19 +6325,19 @@
         <v>229</v>
       </c>
       <c r="C240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D240">
         <v>900890631</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F240" s="1">
         <v>15</v>
       </c>
       <c r="G240" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H240">
         <v>10000000</v>
@@ -6354,19 +6351,19 @@
         <v>230</v>
       </c>
       <c r="C241" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D241">
         <v>51626618</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G241" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H241">
         <v>400000</v>
@@ -6380,7 +6377,7 @@
         <v>231</v>
       </c>
       <c r="C242" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D242">
         <v>9657267</v>
@@ -6389,10 +6386,10 @@
         <v>33</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H242">
         <v>1800000</v>
@@ -6406,7 +6403,7 @@
         <v>232</v>
       </c>
       <c r="C243" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D243">
         <v>1118573758</v>
@@ -6418,7 +6415,7 @@
         <v>15</v>
       </c>
       <c r="G243" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H243">
         <v>1200000</v>
@@ -6432,7 +6429,7 @@
         <v>233</v>
       </c>
       <c r="C244" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D244">
         <v>1118549757</v>
@@ -6444,7 +6441,7 @@
         <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H244">
         <v>1000000</v>
@@ -6458,19 +6455,19 @@
         <v>234</v>
       </c>
       <c r="C245" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D245">
         <v>1116545880</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F245" s="1">
         <v>17</v>
       </c>
       <c r="G245" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H245">
         <v>2103450</v>
@@ -6484,7 +6481,7 @@
         <v>235</v>
       </c>
       <c r="C246" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D246">
         <v>1118534673</v>
@@ -6493,10 +6490,10 @@
         <v>46</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H246">
         <v>952150</v>
@@ -6510,7 +6507,7 @@
         <v>236</v>
       </c>
       <c r="C247" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D247">
         <v>1029640470</v>
@@ -6519,10 +6516,10 @@
         <v>46</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G247" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H247">
         <v>7300</v>
@@ -6536,19 +6533,19 @@
         <v>237</v>
       </c>
       <c r="C248" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D248">
         <v>74183154</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F248" s="1">
         <v>1</v>
       </c>
       <c r="G248" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H248">
         <v>30000000</v>
@@ -6562,19 +6559,19 @@
         <v>238</v>
       </c>
       <c r="C249" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D249">
         <v>1018483669</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G249" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H249">
         <v>2800000</v>
@@ -6588,19 +6585,19 @@
         <v>239</v>
       </c>
       <c r="C250" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D250">
         <v>33480684</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G250" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H250">
         <v>875000</v>
@@ -6626,7 +6623,7 @@
         <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H251">
         <v>6000000</v>
@@ -6640,7 +6637,7 @@
         <v>241</v>
       </c>
       <c r="C252" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D252">
         <v>68295865</v>
@@ -6649,10 +6646,10 @@
         <v>28</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G252" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H252">
         <v>5500000</v>
@@ -6666,19 +6663,19 @@
         <v>242</v>
       </c>
       <c r="C253" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D253">
         <v>47427174</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G253" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H253">
         <v>1531000</v>
@@ -6692,19 +6689,19 @@
         <v>243</v>
       </c>
       <c r="C254" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D254">
         <v>33481785</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H254">
         <v>12000</v>
@@ -6718,19 +6715,19 @@
         <v>244</v>
       </c>
       <c r="C255" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D255">
         <v>1006554074</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F255" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F255" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G255" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H255">
         <v>500000</v>
@@ -6744,19 +6741,19 @@
         <v>245</v>
       </c>
       <c r="C256" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D256">
         <v>1018483669</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G256" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H256">
         <v>2500000</v>
@@ -6770,19 +6767,19 @@
         <v>246</v>
       </c>
       <c r="C257" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D257">
         <v>1032373886</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G257" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H257">
         <v>2000000</v>
@@ -6796,7 +6793,7 @@
         <v>247</v>
       </c>
       <c r="C258" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D258">
         <v>1118545641</v>
@@ -6805,10 +6802,10 @@
         <v>46</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G258" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H258">
         <v>1137950</v>
@@ -6822,7 +6819,7 @@
         <v>248</v>
       </c>
       <c r="C259" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D259">
         <v>1118571010</v>
@@ -6834,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H259">
         <v>4225000</v>
@@ -6848,7 +6845,7 @@
         <v>249</v>
       </c>
       <c r="C260" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D260">
         <v>1118545641</v>
@@ -6857,10 +6854,10 @@
         <v>46</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G260" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H260">
         <v>1137950</v>
@@ -6874,7 +6871,7 @@
         <v>250</v>
       </c>
       <c r="C261" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D261">
         <v>9395471</v>
@@ -6883,10 +6880,10 @@
         <v>10</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H261">
         <v>5000000</v>
@@ -6900,19 +6897,19 @@
         <v>251</v>
       </c>
       <c r="C262" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D262">
         <v>1118539593</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F262" s="1">
         <v>7</v>
       </c>
       <c r="G262" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H262">
         <v>12000000</v>
@@ -6926,19 +6923,19 @@
         <v>252</v>
       </c>
       <c r="C263" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D263">
         <v>1118539593</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F263" s="1">
         <v>7</v>
       </c>
       <c r="G263" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H263">
         <v>3000000</v>
@@ -6952,7 +6949,7 @@
         <v>253</v>
       </c>
       <c r="C264" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D264">
         <v>1118574322</v>
@@ -6964,7 +6961,7 @@
         <v>37</v>
       </c>
       <c r="G264" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H264">
         <v>10000000</v>
@@ -6978,7 +6975,7 @@
         <v>254</v>
       </c>
       <c r="C265" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D265">
         <v>1118562301</v>
@@ -6987,10 +6984,10 @@
         <v>33</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G265" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H265">
         <v>1000000</v>
@@ -7004,7 +7001,7 @@
         <v>255</v>
       </c>
       <c r="C266" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D266">
         <v>1118556533</v>
@@ -7013,10 +7010,10 @@
         <v>10</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G266" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H266">
         <v>900000</v>
@@ -7030,7 +7027,7 @@
         <v>256</v>
       </c>
       <c r="C267" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D267">
         <v>74795106</v>
@@ -7042,7 +7039,7 @@
         <v>29</v>
       </c>
       <c r="G267" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H267">
         <v>2000000</v>
@@ -7056,7 +7053,7 @@
         <v>257</v>
       </c>
       <c r="C268" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D268">
         <v>1098748654</v>
@@ -7068,7 +7065,7 @@
         <v>29</v>
       </c>
       <c r="G268" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H268">
         <v>1000000</v>
@@ -7082,7 +7079,7 @@
         <v>258</v>
       </c>
       <c r="C269" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D269">
         <v>1118534673</v>
@@ -7091,10 +7088,10 @@
         <v>46</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G269" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H269">
         <v>956000</v>
@@ -7108,19 +7105,19 @@
         <v>259</v>
       </c>
       <c r="C270" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D270">
         <v>1118540090</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F270" s="1">
         <v>15</v>
       </c>
       <c r="G270" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H270">
         <v>6000000</v>
@@ -7134,19 +7131,19 @@
         <v>260</v>
       </c>
       <c r="C271" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D271">
         <v>1006409776</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G271" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H271">
         <v>7000000</v>
@@ -7160,7 +7157,7 @@
         <v>261</v>
       </c>
       <c r="C272" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D272">
         <v>91297410</v>
@@ -7169,10 +7166,10 @@
         <v>33</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G272" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H272">
         <v>2500000</v>
@@ -7186,7 +7183,7 @@
         <v>262</v>
       </c>
       <c r="C273" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D273">
         <v>23791752</v>
@@ -7195,10 +7192,10 @@
         <v>10</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H273">
         <v>850000</v>
@@ -7212,7 +7209,7 @@
         <v>263</v>
       </c>
       <c r="C274" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D274">
         <v>91297410</v>
@@ -7221,10 +7218,10 @@
         <v>33</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G274" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H274">
         <v>2500000</v>
@@ -7238,19 +7235,19 @@
         <v>264</v>
       </c>
       <c r="C275" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D275">
         <v>74810525</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G275" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H275">
         <v>9400000</v>
@@ -7264,7 +7261,7 @@
         <v>265</v>
       </c>
       <c r="C276" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D276">
         <v>1010242323</v>
@@ -7276,7 +7273,7 @@
         <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H276">
         <v>2000000</v>
@@ -7290,19 +7287,19 @@
         <v>266</v>
       </c>
       <c r="C277" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D277">
         <v>91287052</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G277" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H277">
         <v>565300</v>
@@ -7316,7 +7313,7 @@
         <v>267</v>
       </c>
       <c r="C278" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D278">
         <v>1010242323</v>
@@ -7328,7 +7325,7 @@
         <v>35</v>
       </c>
       <c r="G278" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H278">
         <v>2000000</v>
@@ -7342,19 +7339,19 @@
         <v>268</v>
       </c>
       <c r="C279" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D279">
         <v>1118553792</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G279" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H279">
         <v>400000</v>
@@ -7368,7 +7365,7 @@
         <v>269</v>
       </c>
       <c r="C280" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D280">
         <v>1118531951</v>
@@ -7377,10 +7374,10 @@
         <v>28</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G280" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H280">
         <v>3125000</v>
@@ -7394,7 +7391,7 @@
         <v>270</v>
       </c>
       <c r="C281" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D281">
         <v>1118551391</v>
@@ -7406,7 +7403,7 @@
         <v>18</v>
       </c>
       <c r="G281" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H281">
         <v>14000000</v>
@@ -7420,7 +7417,7 @@
         <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D282">
         <v>1120588339</v>
@@ -7432,7 +7429,7 @@
         <v>19</v>
       </c>
       <c r="G282" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H282">
         <v>2000000</v>
@@ -7446,7 +7443,7 @@
         <v>272</v>
       </c>
       <c r="C283" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D283">
         <v>1118547693</v>
@@ -7455,10 +7452,10 @@
         <v>10</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G283" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H283">
         <v>7000000</v>
@@ -7472,19 +7469,19 @@
         <v>273</v>
       </c>
       <c r="C284" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D284">
         <v>63322747</v>
       </c>
       <c r="E284" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F284" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F284" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="G284" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H284">
         <v>1000000</v>
@@ -7498,19 +7495,19 @@
         <v>274</v>
       </c>
       <c r="C285" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D285">
         <v>37749956</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G285" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H285">
         <v>1000000</v>
@@ -7524,19 +7521,19 @@
         <v>275</v>
       </c>
       <c r="C286" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D286">
         <v>33481785</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G286" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H286">
         <v>956000</v>
@@ -7550,7 +7547,7 @@
         <v>276</v>
       </c>
       <c r="C287" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D287">
         <v>39095679</v>
@@ -7562,7 +7559,7 @@
         <v>37</v>
       </c>
       <c r="G287" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H287">
         <v>500000</v>
@@ -7576,7 +7573,7 @@
         <v>277</v>
       </c>
       <c r="C288" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D288">
         <v>74184370</v>
@@ -7585,10 +7582,10 @@
         <v>14</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G288" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H288">
         <v>500000</v>
@@ -7602,19 +7599,19 @@
         <v>278</v>
       </c>
       <c r="C289" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D289">
         <v>1118543067</v>
       </c>
       <c r="E289" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G289" t="s">
         <v>271</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G289" t="s">
-        <v>272</v>
       </c>
       <c r="H289">
         <v>10800000</v>
@@ -7628,7 +7625,7 @@
         <v>279</v>
       </c>
       <c r="C290" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D290">
         <v>1125642429</v>
@@ -7640,7 +7637,7 @@
         <v>9</v>
       </c>
       <c r="G290" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H290">
         <v>14000000</v>
@@ -7654,7 +7651,7 @@
         <v>280</v>
       </c>
       <c r="C291" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D291">
         <v>1006553976</v>
@@ -7666,7 +7663,7 @@
         <v>11</v>
       </c>
       <c r="G291" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H291">
         <v>14000000</v>
@@ -7680,19 +7677,19 @@
         <v>281</v>
       </c>
       <c r="C292" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D292">
         <v>1018483669</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H292">
         <v>800000</v>
@@ -7706,7 +7703,7 @@
         <v>282</v>
       </c>
       <c r="C293" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D293">
         <v>901299272</v>
@@ -7715,10 +7712,10 @@
         <v>46</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G293" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H293">
         <v>4000000</v>
@@ -7732,7 +7729,7 @@
         <v>283</v>
       </c>
       <c r="C294" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D294">
         <v>901299272</v>
@@ -7741,10 +7738,10 @@
         <v>46</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G294" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H294">
         <v>1000000</v>
@@ -7758,7 +7755,7 @@
         <v>284</v>
       </c>
       <c r="C295" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D295">
         <v>1094370742</v>
@@ -7767,10 +7764,10 @@
         <v>33</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G295" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H295">
         <v>1000000</v>
@@ -7784,19 +7781,19 @@
         <v>285</v>
       </c>
       <c r="C296" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D296">
         <v>79040512</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G296" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H296">
         <v>3500000</v>
@@ -7815,19 +7812,19 @@
         <v>287</v>
       </c>
       <c r="C298" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D298">
         <v>79040512</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G298" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H298">
         <v>1500000</v>
@@ -7841,7 +7838,7 @@
         <v>288</v>
       </c>
       <c r="C299" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D299">
         <v>9395471</v>
@@ -7850,10 +7847,10 @@
         <v>10</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G299" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H299">
         <v>1100000</v>
@@ -7867,19 +7864,19 @@
         <v>289</v>
       </c>
       <c r="C300" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D300">
         <v>1097389119</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G300" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H300">
         <v>7000000</v>
@@ -7899,13 +7896,13 @@
         <v>51754727</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G301" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H301">
         <v>820000</v>
@@ -7928,10 +7925,10 @@
         <v>33</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G302" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H302">
         <v>1040000</v>
@@ -7950,7 +7947,7 @@
         <v>293</v>
       </c>
       <c r="C304" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D304">
         <v>1118554218</v>
@@ -7959,10 +7956,10 @@
         <v>10</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H304">
         <v>4000000</v>
@@ -7976,7 +7973,7 @@
         <v>294</v>
       </c>
       <c r="C305" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D305">
         <v>1118555645</v>
@@ -7985,10 +7982,10 @@
         <v>33</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G305" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H305">
         <v>1000000</v>
@@ -8002,7 +7999,7 @@
         <v>295</v>
       </c>
       <c r="C306" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D306">
         <v>52366011</v>
@@ -8011,10 +8008,10 @@
         <v>33</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G306" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H306">
         <v>1000000</v>
@@ -8028,7 +8025,7 @@
         <v>296</v>
       </c>
       <c r="C307" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D307">
         <v>47442218</v>
@@ -8037,10 +8034,10 @@
         <v>33</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G307" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H307">
         <v>1990000</v>
@@ -8054,19 +8051,19 @@
         <v>297</v>
       </c>
       <c r="C308" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D308">
         <v>4431762</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G308" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H308">
         <v>1000000</v>
@@ -8092,7 +8089,7 @@
         <v>15</v>
       </c>
       <c r="G309" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H309">
         <v>1000000</v>
@@ -8106,19 +8103,19 @@
         <v>299</v>
       </c>
       <c r="C310" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D310">
         <v>51626618</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G310" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H310">
         <v>400000</v>
@@ -8132,7 +8129,7 @@
         <v>300</v>
       </c>
       <c r="C311" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D311">
         <v>1037661153</v>
@@ -8144,7 +8141,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H311">
         <v>7000000</v>
@@ -8158,7 +8155,7 @@
         <v>301</v>
       </c>
       <c r="C312" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D312">
         <v>47427085</v>
@@ -8167,10 +8164,10 @@
         <v>10</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G312" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H312">
         <v>7000000</v>
@@ -8184,7 +8181,7 @@
         <v>302</v>
       </c>
       <c r="C313" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D313">
         <v>1052384746</v>
@@ -8196,7 +8193,7 @@
         <v>14</v>
       </c>
       <c r="G313" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H313">
         <v>3000000</v>
@@ -8210,19 +8207,19 @@
         <v>303</v>
       </c>
       <c r="C314" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D314">
         <v>1018418921</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G314" t="s">
         <v>271</v>
-      </c>
-      <c r="F314" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G314" t="s">
-        <v>272</v>
       </c>
       <c r="H314">
         <v>14000000</v>
@@ -8236,7 +8233,7 @@
         <v>304</v>
       </c>
       <c r="C315" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D315">
         <v>1118538079</v>
@@ -8245,10 +8242,10 @@
         <v>33</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G315" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H315">
         <v>5000000</v>
@@ -8262,7 +8259,7 @@
         <v>305</v>
       </c>
       <c r="C316" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D316">
         <v>1118544757</v>
@@ -8274,7 +8271,7 @@
         <v>15</v>
       </c>
       <c r="G316" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H316">
         <v>1000000</v>
@@ -8288,7 +8285,7 @@
         <v>306</v>
       </c>
       <c r="C317" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D317">
         <v>63294939</v>
@@ -8297,10 +8294,10 @@
         <v>28</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G317" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H317">
         <v>870000</v>
@@ -8314,7 +8311,7 @@
         <v>307</v>
       </c>
       <c r="C318" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D318">
         <v>1022376215</v>
@@ -8326,7 +8323,7 @@
         <v>29</v>
       </c>
       <c r="G318" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H318">
         <v>870000</v>
@@ -8340,13 +8337,13 @@
         <v>308</v>
       </c>
       <c r="C319" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D319">
         <v>24228337</v>
       </c>
       <c r="G319" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H319">
         <v>2000000</v>
@@ -8360,7 +8357,7 @@
         <v>309</v>
       </c>
       <c r="C320" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D320">
         <v>1065829393</v>
@@ -8372,7 +8369,7 @@
         <v>24</v>
       </c>
       <c r="G320" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H320">
         <v>2083300</v>
@@ -8386,19 +8383,19 @@
         <v>310</v>
       </c>
       <c r="C321" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D321">
         <v>1118537813</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G321" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H321">
         <v>7000000</v>
@@ -8412,19 +8409,19 @@
         <v>311</v>
       </c>
       <c r="C322" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D322">
         <v>74183154</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F322" s="1">
         <v>1</v>
       </c>
       <c r="G322" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H322">
         <v>30000000</v>
@@ -8438,19 +8435,19 @@
         <v>312</v>
       </c>
       <c r="C323" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D323">
         <v>74810525</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G323" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H323">
         <v>1000000</v>
@@ -8464,7 +8461,7 @@
         <v>313</v>
       </c>
       <c r="C324" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D324">
         <v>52421972</v>
@@ -8476,7 +8473,7 @@
         <v>6</v>
       </c>
       <c r="G324" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H324">
         <v>4000000</v>
@@ -8490,19 +8487,19 @@
         <v>314</v>
       </c>
       <c r="C325" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D325">
         <v>46354840</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G325" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H325">
         <v>1000000</v>
@@ -8516,7 +8513,7 @@
         <v>315</v>
       </c>
       <c r="C326" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D326">
         <v>1118571010</v>
@@ -8528,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H326">
         <v>4225000</v>
@@ -8542,19 +8539,19 @@
         <v>316</v>
       </c>
       <c r="C327" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D327">
         <v>51692580</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F327" s="1">
         <v>12</v>
       </c>
       <c r="G327" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H327">
         <v>4500000</v>
@@ -8568,7 +8565,7 @@
         <v>317</v>
       </c>
       <c r="C328" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D328">
         <v>9657267</v>
@@ -8577,10 +8574,10 @@
         <v>33</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G328" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H328">
         <v>1800000</v>
@@ -8594,7 +8591,7 @@
         <v>318</v>
       </c>
       <c r="C329" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D329">
         <v>1118573758</v>
@@ -8606,7 +8603,7 @@
         <v>15</v>
       </c>
       <c r="G329" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H329">
         <v>1200000</v>
@@ -8614,13 +8611,13 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B330">
         <v>319</v>
       </c>
       <c r="C330" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -8631,19 +8628,19 @@
         <v>320</v>
       </c>
       <c r="C331" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D331">
         <v>47433152</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G331" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H331">
         <v>3000000</v>
@@ -8657,7 +8654,7 @@
         <v>321</v>
       </c>
       <c r="C332" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D332">
         <v>1118554218</v>
@@ -8666,10 +8663,10 @@
         <v>10</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G332" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H332">
         <v>3000000</v>
@@ -8683,7 +8680,7 @@
         <v>322</v>
       </c>
       <c r="C333" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D333">
         <v>1118556533</v>
@@ -8692,10 +8689,10 @@
         <v>10</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G333" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H333">
         <v>900000</v>
@@ -8709,7 +8706,7 @@
         <v>323</v>
       </c>
       <c r="C334" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D334">
         <v>74795106</v>
@@ -8721,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="G334" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H334">
         <v>1178600</v>
@@ -8735,19 +8732,19 @@
         <v>324</v>
       </c>
       <c r="C335" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D335">
         <v>51692580</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F335" s="1">
         <v>12</v>
       </c>
       <c r="G335" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H335">
         <v>1500000</v>
@@ -8761,7 +8758,7 @@
         <v>325</v>
       </c>
       <c r="C336" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D336">
         <v>91297410</v>
@@ -8770,10 +8767,10 @@
         <v>33</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G336" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H336">
         <v>2500000</v>
@@ -8787,7 +8784,7 @@
         <v>326</v>
       </c>
       <c r="C337" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D337">
         <v>91297410</v>
@@ -8796,10 +8793,10 @@
         <v>33</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G337" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H337">
         <v>2500000</v>
@@ -8813,19 +8810,19 @@
         <v>327</v>
       </c>
       <c r="C338" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D338">
         <v>6763321</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G338" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H338">
         <v>5000000</v>
@@ -8839,19 +8836,19 @@
         <v>328</v>
       </c>
       <c r="C339" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D339">
         <v>1032373886</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G339" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H339">
         <v>2000000</v>
@@ -8877,7 +8874,7 @@
         <v>23</v>
       </c>
       <c r="G340" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H340">
         <v>2000000</v>
@@ -8891,7 +8888,7 @@
         <v>330</v>
       </c>
       <c r="C341" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D341">
         <v>1118574027</v>
@@ -8903,7 +8900,7 @@
         <v>26</v>
       </c>
       <c r="G341" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H341">
         <v>10000000</v>
@@ -8917,19 +8914,19 @@
         <v>331</v>
       </c>
       <c r="C342" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D342">
         <v>1006409776</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G342" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H342">
         <v>1034500</v>
@@ -8943,7 +8940,7 @@
         <v>332</v>
       </c>
       <c r="C343" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D343">
         <v>1118545641</v>
@@ -8952,10 +8949,10 @@
         <v>46</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G343" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H343">
         <v>1137950</v>
@@ -8974,7 +8971,7 @@
         <v>334</v>
       </c>
       <c r="C345" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D345">
         <v>1118545641</v>
@@ -8983,10 +8980,10 @@
         <v>46</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G345" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H345">
         <v>1137950</v>
@@ -9000,19 +8997,19 @@
         <v>335</v>
       </c>
       <c r="C346" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D346">
         <v>51626618</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G346" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H346">
         <v>4000000</v>
@@ -9020,13 +9017,13 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B347">
         <v>336</v>
       </c>
       <c r="C347" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -9042,7 +9039,7 @@
         <v>338</v>
       </c>
       <c r="C349" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D349">
         <v>53017217</v>
@@ -9054,7 +9051,7 @@
         <v>17</v>
       </c>
       <c r="G349" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H349">
         <v>4000000</v>
@@ -9073,7 +9070,7 @@
         <v>340</v>
       </c>
       <c r="C351" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D351">
         <v>1118573758</v>
@@ -9082,10 +9079,10 @@
         <v>14</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G351" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H351">
         <v>7000000</v>
@@ -9111,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="G352" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H352">
         <v>12607300</v>
@@ -9125,7 +9122,7 @@
         <v>342</v>
       </c>
       <c r="C353" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D353">
         <v>1118562301</v>
@@ -9134,10 +9131,10 @@
         <v>33</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G353" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H353">
         <v>100000</v>
